--- a/data/031024/10pct_0WSt_iCar/10pct_0WSt_iCar-RecoveryAndFlow_1.xlsx
+++ b/data/031024/10pct_0WSt_iCar/10pct_0WSt_iCar-RecoveryAndFlow_1.xlsx
@@ -1,23 +1,27 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28025"/>
+  <workbookPr defaultThemeVersion="202300"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\petrus.kirsten\PycharmProjects\RheometerPlots\data\031024\10pct_0WSt_iCar\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{09987901-8F44-4FD6-9C99-71565FC8902B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView activeTab="0"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Table p. 1" sheetId="1" r:id="rId2"/>
+    <sheet name="Table p. 1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="125725" fullCalcOnLoad="true" refMode="A1"/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="174" uniqueCount="174">
   <si>
-    <t xml:space="preserve"> </t>
-  </si>
-  <si>
     <t>t in s</t>
   </si>
   <si>
@@ -535,30 +539,30 @@
   </si>
   <si>
     <t>4-2</t>
+  </si>
+  <si>
+    <t>Seg</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="1">
-    <numFmt numFmtId="166" formatCode="#,##0.00;-#,##0.00"/>
-  </numFmts>
-  <fonts count="3">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <name val="Arial"/>
     </font>
     <font>
+      <b/>
+      <sz val="9"/>
+      <color rgb="FF000000"/>
       <name val="Segoe UI"/>
-      <b/>
-      <color rgb="FF000000"/>
-      <sz val="9"/>
     </font>
     <font>
+      <sz val="9"/>
+      <color rgb="FF000000"/>
       <name val="Segoe UI"/>
-      <color rgb="FF000000"/>
-      <sz val="9"/>
     </font>
   </fonts>
   <fills count="2">
@@ -578,34 +582,39 @@
       <diagonal/>
     </border>
     <border>
-      <left style="none"/>
-      <right style="none"/>
-      <top style="none"/>
-      <bottom style="none"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
     </border>
     <border>
-      <left style="none"/>
-      <right style="none"/>
-      <top style="none"/>
-      <bottom style="none"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
     </border>
     <border>
-      <left style="none"/>
-      <right style="none"/>
-      <top style="none"/>
-      <bottom style="none"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
     </border>
     <border>
-      <left style="none"/>
-      <right style="none"/>
-      <top style="none"/>
-      <bottom style="none"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
     </border>
     <border>
-      <left style="none"/>
-      <right style="none"/>
-      <top style="none"/>
-      <bottom style="none"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
@@ -613,143 +622,450 @@
   </cellStyleXfs>
   <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true">
-      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true"/>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true">
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true"/>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true">
-      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true"/>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="166" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true">
-      <alignment horizontal="right" vertical="top" textRotation="0" wrapText="true"/>
+    <xf numFmtId="39" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="166" fontId="2" fillId="0" borderId="5" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true">
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true"/>
+    <xf numFmtId="39" fontId="2" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>19050</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>19050</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>295275</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>3990975</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="Picture 1"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="true"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip r:embed="rId1"/>
-        <a:srcRect/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="685800" y="904875"/>
-          <a:ext cx="1219370" cy="1219370"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+  <a:themeElements>
+    <a:clrScheme name="Office">
+      <a:dk1>
+        <a:sysClr val="windowText" lastClr="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="0E2841"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="E8E8E8"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="156082"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="E97132"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="196B24"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="0F9ED5"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="A02B93"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="4EA72E"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="467886"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="96607D"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Office">
+      <a:majorFont>
+        <a:latin typeface="Aptos Display" panose="02110004020202020204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック Light"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线 Light"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Aptos Narrow" panose="02110004020202020204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme name="Office">
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="110000"/>
+                <a:satMod val="105000"/>
+                <a:tint val="67000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="103000"/>
+                <a:tint val="73000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="109000"/>
+                <a:tint val="81000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:satMod val="103000"/>
+                <a:lumMod val="102000"/>
+                <a:tint val="94000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:satMod val="110000"/>
+                <a:lumMod val="100000"/>
+                <a:shade val="100000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="99000"/>
+                <a:satMod val="120000"/>
+                <a:shade val="78000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="63000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:tint val="95000"/>
+            <a:satMod val="170000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="93000"/>
+                <a:satMod val="150000"/>
+                <a:shade val="98000"/>
+                <a:lumMod val="102000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:tint val="98000"/>
+                <a:satMod val="130000"/>
+                <a:shade val="90000"/>
+                <a:lumMod val="103000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="63000"/>
+                <a:satMod val="120000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+  <a:objectDefaults>
+    <a:lnDef>
+      <a:spPr/>
+      <a:bodyPr/>
+      <a:lstStyle/>
+      <a:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </a:style>
+    </a:lnDef>
+  </a:objectDefaults>
+  <a:extraClrSchemeLst/>
+  <a:extLst>
+    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{2E142A2C-CD16-42D6-873A-C26D2A0506FA}" vid="{1BDDFF52-6CD6-40A5-AB3C-68EB2F1E4D0A}"/>
+    </a:ext>
+  </a:extLst>
+</a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L164"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:L163"/>
   <sheetViews>
-    <sheetView zoomScale="100" zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="7.44921875" customWidth="true"/>
-    <col min="2" max="2" width="7.44921875" customWidth="true"/>
-    <col min="3" max="3" width="7.44921875" customWidth="true"/>
-    <col min="4" max="4" width="7.44921875" customWidth="true"/>
-    <col min="5" max="5" width="7.44921875" customWidth="true"/>
-    <col min="6" max="6" width="7.44921875" customWidth="true"/>
-    <col min="7" max="7" width="7.44921875" customWidth="true"/>
-    <col min="8" max="8" width="7.44921875" customWidth="true"/>
-    <col min="9" max="9" width="7.44921875" customWidth="true"/>
-    <col min="10" max="10" width="7.44921875" customWidth="true"/>
-    <col min="11" max="11" width="7.44921875" customWidth="true"/>
-    <col min="12" max="12" width="7.44921875" customWidth="true"/>
-    <col min="13" max="13" width="1.4765625" customWidth="true"/>
+    <col min="1" max="12" width="7.5" customWidth="1"/>
+    <col min="13" max="13" width="1.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="374" customHeight="true"/>
-    <row r="2" ht="17.714" customHeight="true">
-      <c r="A2" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="1" t="s">
+    <row r="1" spans="1:12" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F2" s="1" t="s">
+      <c r="G1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G2" s="2" t="s">
+      <c r="H1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="H2" s="2" t="s">
+      <c r="I1" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="I2" s="2" t="s">
+      <c r="J1" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="J2" s="2" t="s">
+      <c r="K1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="K2" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="L2" s="1" t="s">
+    </row>
+    <row r="2" spans="1:12" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="3" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="3" ht="17.714" customHeight="true">
+      <c r="B2" s="4">
+        <v>8.9600000000000009</v>
+      </c>
+      <c r="C2" s="4">
+        <v>1.04</v>
+      </c>
+      <c r="D2" s="4">
+        <v>0</v>
+      </c>
+      <c r="E2" s="4">
+        <v>0</v>
+      </c>
+      <c r="F2" s="4">
+        <v>0</v>
+      </c>
+      <c r="G2" s="4">
+        <v>0</v>
+      </c>
+      <c r="H2" s="4">
+        <v>0</v>
+      </c>
+      <c r="I2" s="4">
+        <v>0</v>
+      </c>
+      <c r="J2" s="4">
+        <v>-2.0300000000000001E-3</v>
+      </c>
+      <c r="K2" s="4">
+        <v>1.19E-5</v>
+      </c>
+      <c r="L2" s="4">
+        <v>2.2200000000000001E-2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
         <v>12</v>
       </c>
       <c r="B3" s="4">
-        <v>8.9600000000000009</v>
+        <v>9.99</v>
       </c>
       <c r="C3" s="4">
-        <v>1.04</v>
+        <v>2.0699999999999998</v>
       </c>
       <c r="D3" s="4">
         <v>0</v>
@@ -770,24 +1086,24 @@
         <v>0</v>
       </c>
       <c r="J3" s="4">
-        <v>-0.0020300000000000001</v>
+        <v>7.5100000000000004E-4</v>
       </c>
       <c r="K3" s="4">
-        <v>1.19e-005</v>
+        <v>3.6399999999999997E-5</v>
       </c>
       <c r="L3" s="4">
-        <v>0.022200000000000001</v>
-      </c>
-    </row>
-    <row r="4" ht="17.714" customHeight="true">
+        <v>2.1999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="3" t="s">
         <v>13</v>
       </c>
       <c r="B4" s="4">
-        <v>9.9900000000000002</v>
+        <v>11</v>
       </c>
       <c r="C4" s="4">
-        <v>2.0699999999999998</v>
+        <v>3.11</v>
       </c>
       <c r="D4" s="4">
         <v>0</v>
@@ -808,24 +1124,24 @@
         <v>0</v>
       </c>
       <c r="J4" s="4">
-        <v>0.00075100000000000004</v>
+        <v>7.1300000000000001E-3</v>
       </c>
       <c r="K4" s="4">
-        <v>3.6399999999999997e-005</v>
+        <v>7.7799999999999994E-5</v>
       </c>
       <c r="L4" s="4">
-        <v>0.021999999999999999</v>
-      </c>
-    </row>
-    <row r="5" ht="17.714" customHeight="true">
+        <v>2.0799999999999999E-2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="3" t="s">
         <v>14</v>
       </c>
       <c r="B5" s="4">
-        <v>11</v>
+        <v>12.1</v>
       </c>
       <c r="C5" s="4">
-        <v>3.1099999999999999</v>
+        <v>4.1399999999999997</v>
       </c>
       <c r="D5" s="4">
         <v>0</v>
@@ -846,24 +1162,24 @@
         <v>0</v>
       </c>
       <c r="J5" s="4">
-        <v>0.0071300000000000001</v>
+        <v>1.7500000000000002E-2</v>
       </c>
       <c r="K5" s="4">
-        <v>7.7799999999999994e-005</v>
+        <v>1.16E-4</v>
       </c>
       <c r="L5" s="4">
-        <v>0.020799999999999999</v>
-      </c>
-    </row>
-    <row r="6" ht="17.714" customHeight="true">
+        <v>2.2200000000000001E-2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="3" t="s">
         <v>15</v>
       </c>
       <c r="B6" s="4">
-        <v>12.1</v>
+        <v>13.1</v>
       </c>
       <c r="C6" s="4">
-        <v>4.1399999999999997</v>
+        <v>5.17</v>
       </c>
       <c r="D6" s="4">
         <v>0</v>
@@ -884,24 +1200,24 @@
         <v>0</v>
       </c>
       <c r="J6" s="4">
-        <v>0.017500000000000002</v>
+        <v>3.1199999999999999E-2</v>
       </c>
       <c r="K6" s="4">
-        <v>0.000116</v>
+        <v>1.4999999999999999E-4</v>
       </c>
       <c r="L6" s="4">
-        <v>0.022200000000000001</v>
-      </c>
-    </row>
-    <row r="7" ht="17.714" customHeight="true">
+        <v>2.1000000000000001E-2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="3" t="s">
         <v>16</v>
       </c>
       <c r="B7" s="4">
-        <v>13.1</v>
+        <v>14.1</v>
       </c>
       <c r="C7" s="4">
-        <v>5.1699999999999999</v>
+        <v>6.21</v>
       </c>
       <c r="D7" s="4">
         <v>0</v>
@@ -922,24 +1238,24 @@
         <v>0</v>
       </c>
       <c r="J7" s="4">
-        <v>0.031199999999999999</v>
+        <v>4.8500000000000001E-2</v>
       </c>
       <c r="K7" s="4">
-        <v>0.00014999999999999999</v>
+        <v>1.8799999999999999E-4</v>
       </c>
       <c r="L7" s="4">
-        <v>0.021000000000000001</v>
-      </c>
-    </row>
-    <row r="8" ht="17.714" customHeight="true">
+        <v>2.1100000000000001E-2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="3" t="s">
         <v>17</v>
       </c>
       <c r="B8" s="4">
-        <v>14.1</v>
+        <v>15.2</v>
       </c>
       <c r="C8" s="4">
-        <v>6.21</v>
+        <v>7.24</v>
       </c>
       <c r="D8" s="4">
         <v>0</v>
@@ -960,24 +1276,24 @@
         <v>0</v>
       </c>
       <c r="J8" s="4">
-        <v>0.048500000000000001</v>
+        <v>6.8900000000000003E-2</v>
       </c>
       <c r="K8" s="4">
-        <v>0.00018799999999999999</v>
+        <v>2.2499999999999999E-4</v>
       </c>
       <c r="L8" s="4">
-        <v>0.021100000000000001</v>
-      </c>
-    </row>
-    <row r="9" ht="17.714" customHeight="true">
+        <v>2.1999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="3" t="s">
         <v>18</v>
       </c>
       <c r="B9" s="4">
-        <v>15.199999999999999</v>
+        <v>16.2</v>
       </c>
       <c r="C9" s="4">
-        <v>7.2400000000000002</v>
+        <v>8.2799999999999994</v>
       </c>
       <c r="D9" s="4">
         <v>0</v>
@@ -998,24 +1314,24 @@
         <v>0</v>
       </c>
       <c r="J9" s="4">
-        <v>0.068900000000000003</v>
+        <v>9.2399999999999996E-2</v>
       </c>
       <c r="K9" s="4">
-        <v>0.00022499999999999999</v>
+        <v>2.33E-4</v>
       </c>
       <c r="L9" s="4">
-        <v>0.021999999999999999</v>
-      </c>
-    </row>
-    <row r="10" ht="17.714" customHeight="true">
+        <v>2.0299999999999999E-2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="3" t="s">
         <v>19</v>
       </c>
       <c r="B10" s="4">
-        <v>16.199999999999999</v>
+        <v>17.2</v>
       </c>
       <c r="C10" s="4">
-        <v>8.2799999999999994</v>
+        <v>9.31</v>
       </c>
       <c r="D10" s="4">
         <v>0</v>
@@ -1036,24 +1352,24 @@
         <v>0</v>
       </c>
       <c r="J10" s="4">
-        <v>0.092399999999999996</v>
+        <v>0.12</v>
       </c>
       <c r="K10" s="4">
-        <v>0.000233</v>
+        <v>2.7300000000000002E-4</v>
       </c>
       <c r="L10" s="4">
-        <v>0.020299999999999999</v>
-      </c>
-    </row>
-    <row r="11" ht="17.714" customHeight="true">
+        <v>1.9199999999999998E-2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="3" t="s">
         <v>20</v>
       </c>
       <c r="B11" s="4">
-        <v>17.199999999999999</v>
+        <v>18.3</v>
       </c>
       <c r="C11" s="4">
-        <v>9.3100000000000005</v>
+        <v>10.3</v>
       </c>
       <c r="D11" s="4">
         <v>0</v>
@@ -1074,24 +1390,24 @@
         <v>0</v>
       </c>
       <c r="J11" s="4">
-        <v>0.12</v>
+        <v>0.15</v>
       </c>
       <c r="K11" s="4">
-        <v>0.00027300000000000002</v>
+        <v>2.8899999999999998E-4</v>
       </c>
       <c r="L11" s="4">
-        <v>0.019199999999999998</v>
-      </c>
-    </row>
-    <row r="12" ht="17.714" customHeight="true">
+        <v>2.12E-2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="3" t="s">
         <v>21</v>
       </c>
       <c r="B12" s="4">
-        <v>18.300000000000001</v>
+        <v>19.3</v>
       </c>
       <c r="C12" s="4">
-        <v>10.300000000000001</v>
+        <v>11.4</v>
       </c>
       <c r="D12" s="4">
         <v>0</v>
@@ -1112,24 +1428,24 @@
         <v>0</v>
       </c>
       <c r="J12" s="4">
-        <v>0.14999999999999999</v>
+        <v>0.18</v>
       </c>
       <c r="K12" s="4">
-        <v>0.00028899999999999998</v>
+        <v>3.2299999999999999E-4</v>
       </c>
       <c r="L12" s="4">
-        <v>0.0212</v>
-      </c>
-    </row>
-    <row r="13" ht="17.714" customHeight="true">
+        <v>1.9E-2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="3" t="s">
         <v>22</v>
       </c>
       <c r="B13" s="4">
-        <v>19.300000000000001</v>
+        <v>20.3</v>
       </c>
       <c r="C13" s="4">
-        <v>11.4</v>
+        <v>12.4</v>
       </c>
       <c r="D13" s="4">
         <v>0</v>
@@ -1150,24 +1466,24 @@
         <v>0</v>
       </c>
       <c r="J13" s="4">
-        <v>0.17999999999999999</v>
+        <v>0.21</v>
       </c>
       <c r="K13" s="4">
-        <v>0.00032299999999999999</v>
+        <v>3.39E-4</v>
       </c>
       <c r="L13" s="4">
-        <v>0.019</v>
-      </c>
-    </row>
-    <row r="14" ht="17.714" customHeight="true">
+        <v>1.8100000000000002E-2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="3" t="s">
         <v>23</v>
       </c>
       <c r="B14" s="4">
-        <v>20.300000000000001</v>
+        <v>21.4</v>
       </c>
       <c r="C14" s="4">
-        <v>12.4</v>
+        <v>13.4</v>
       </c>
       <c r="D14" s="4">
         <v>0</v>
@@ -1188,24 +1504,24 @@
         <v>0</v>
       </c>
       <c r="J14" s="4">
-        <v>0.20999999999999999</v>
+        <v>0.25</v>
       </c>
       <c r="K14" s="4">
-        <v>0.000339</v>
+        <v>3.59E-4</v>
       </c>
       <c r="L14" s="4">
-        <v>0.018100000000000002</v>
-      </c>
-    </row>
-    <row r="15" ht="17.714" customHeight="true">
+        <v>1.6899999999999998E-2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="3" t="s">
         <v>24</v>
       </c>
       <c r="B15" s="4">
-        <v>21.399999999999999</v>
+        <v>22.4</v>
       </c>
       <c r="C15" s="4">
-        <v>13.4</v>
+        <v>14.5</v>
       </c>
       <c r="D15" s="4">
         <v>0</v>
@@ -1226,24 +1542,24 @@
         <v>0</v>
       </c>
       <c r="J15" s="4">
-        <v>0.25</v>
+        <v>0.28999999999999998</v>
       </c>
       <c r="K15" s="4">
-        <v>0.000359</v>
+        <v>3.9599999999999998E-4</v>
       </c>
       <c r="L15" s="4">
-        <v>0.016899999999999998</v>
-      </c>
-    </row>
-    <row r="16" ht="17.714" customHeight="true">
+        <v>1.9599999999999999E-2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="3" t="s">
         <v>25</v>
       </c>
       <c r="B16" s="4">
-        <v>22.399999999999999</v>
+        <v>23.4</v>
       </c>
       <c r="C16" s="4">
-        <v>14.5</v>
+        <v>15.5</v>
       </c>
       <c r="D16" s="4">
         <v>0</v>
@@ -1264,24 +1580,24 @@
         <v>0</v>
       </c>
       <c r="J16" s="4">
-        <v>0.28999999999999998</v>
+        <v>0.33</v>
       </c>
       <c r="K16" s="4">
-        <v>0.00039599999999999998</v>
+        <v>4.1800000000000002E-4</v>
       </c>
       <c r="L16" s="4">
-        <v>0.019599999999999999</v>
-      </c>
-    </row>
-    <row r="17" ht="17.714" customHeight="true">
+        <v>1.55E-2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="3" t="s">
         <v>26</v>
       </c>
       <c r="B17" s="4">
-        <v>23.399999999999999</v>
+        <v>24.5</v>
       </c>
       <c r="C17" s="4">
-        <v>15.5</v>
+        <v>16.600000000000001</v>
       </c>
       <c r="D17" s="4">
         <v>0</v>
@@ -1302,24 +1618,24 @@
         <v>0</v>
       </c>
       <c r="J17" s="4">
-        <v>0.33000000000000002</v>
+        <v>0.37</v>
       </c>
       <c r="K17" s="4">
-        <v>0.00041800000000000002</v>
+        <v>4.1300000000000001E-4</v>
       </c>
       <c r="L17" s="4">
-        <v>0.0155</v>
-      </c>
-    </row>
-    <row r="18" ht="17.714" customHeight="true">
+        <v>1.78E-2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="3" t="s">
         <v>27</v>
       </c>
       <c r="B18" s="4">
-        <v>24.5</v>
+        <v>25.5</v>
       </c>
       <c r="C18" s="4">
-        <v>16.600000000000001</v>
+        <v>17.600000000000001</v>
       </c>
       <c r="D18" s="4">
         <v>0</v>
@@ -1340,24 +1656,24 @@
         <v>0</v>
       </c>
       <c r="J18" s="4">
-        <v>0.37</v>
+        <v>0.42</v>
       </c>
       <c r="K18" s="4">
-        <v>0.00041300000000000001</v>
+        <v>4.6200000000000001E-4</v>
       </c>
       <c r="L18" s="4">
-        <v>0.0178</v>
-      </c>
-    </row>
-    <row r="19" ht="17.714" customHeight="true">
+        <v>1.8700000000000001E-2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="3" t="s">
         <v>28</v>
       </c>
       <c r="B19" s="4">
-        <v>25.5</v>
+        <v>26.5</v>
       </c>
       <c r="C19" s="4">
-        <v>17.600000000000001</v>
+        <v>18.600000000000001</v>
       </c>
       <c r="D19" s="4">
         <v>0</v>
@@ -1378,24 +1694,24 @@
         <v>0</v>
       </c>
       <c r="J19" s="4">
-        <v>0.41999999999999998</v>
+        <v>0.46</v>
       </c>
       <c r="K19" s="4">
-        <v>0.00046200000000000001</v>
+        <v>4.57E-4</v>
       </c>
       <c r="L19" s="4">
-        <v>0.018700000000000001</v>
-      </c>
-    </row>
-    <row r="20" ht="17.714" customHeight="true">
+        <v>2.23E-2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="3" t="s">
         <v>29</v>
       </c>
       <c r="B20" s="4">
-        <v>26.5</v>
+        <v>27.6</v>
       </c>
       <c r="C20" s="4">
-        <v>18.600000000000001</v>
+        <v>19.7</v>
       </c>
       <c r="D20" s="4">
         <v>0</v>
@@ -1416,24 +1732,24 @@
         <v>0</v>
       </c>
       <c r="J20" s="4">
-        <v>0.46000000000000002</v>
+        <v>0.52</v>
       </c>
       <c r="K20" s="4">
-        <v>0.000457</v>
+        <v>4.86E-4</v>
       </c>
       <c r="L20" s="4">
-        <v>0.0223</v>
-      </c>
-    </row>
-    <row r="21" ht="17.714" customHeight="true">
+        <v>2.2499999999999999E-2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="3" t="s">
         <v>30</v>
       </c>
       <c r="B21" s="4">
-        <v>27.600000000000001</v>
+        <v>28.6</v>
       </c>
       <c r="C21" s="4">
-        <v>19.699999999999999</v>
+        <v>20.7</v>
       </c>
       <c r="D21" s="4">
         <v>0</v>
@@ -1454,24 +1770,24 @@
         <v>0</v>
       </c>
       <c r="J21" s="4">
-        <v>0.52000000000000002</v>
+        <v>0.56999999999999995</v>
       </c>
       <c r="K21" s="4">
-        <v>0.000486</v>
+        <v>5.1699999999999999E-4</v>
       </c>
       <c r="L21" s="4">
-        <v>0.022499999999999999</v>
-      </c>
-    </row>
-    <row r="22" ht="17.714" customHeight="true">
+        <v>2.3599999999999999E-2</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="3" t="s">
         <v>31</v>
       </c>
       <c r="B22" s="4">
-        <v>28.600000000000001</v>
+        <v>29.6</v>
       </c>
       <c r="C22" s="4">
-        <v>20.699999999999999</v>
+        <v>21.7</v>
       </c>
       <c r="D22" s="4">
         <v>0</v>
@@ -1492,24 +1808,24 @@
         <v>0</v>
       </c>
       <c r="J22" s="4">
-        <v>0.56999999999999995</v>
+        <v>0.62</v>
       </c>
       <c r="K22" s="4">
-        <v>0.00051699999999999999</v>
+        <v>5.4799999999999998E-4</v>
       </c>
       <c r="L22" s="4">
-        <v>0.023599999999999999</v>
-      </c>
-    </row>
-    <row r="23" ht="17.714" customHeight="true">
+        <v>2.3599999999999999E-2</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="3" t="s">
         <v>32</v>
       </c>
       <c r="B23" s="4">
-        <v>29.600000000000001</v>
+        <v>30.7</v>
       </c>
       <c r="C23" s="4">
-        <v>21.699999999999999</v>
+        <v>22.8</v>
       </c>
       <c r="D23" s="4">
         <v>0</v>
@@ -1530,24 +1846,24 @@
         <v>0</v>
       </c>
       <c r="J23" s="4">
-        <v>0.62</v>
+        <v>0.68</v>
       </c>
       <c r="K23" s="4">
-        <v>0.00054799999999999998</v>
+        <v>5.5599999999999996E-4</v>
       </c>
       <c r="L23" s="4">
-        <v>0.023599999999999999</v>
-      </c>
-    </row>
-    <row r="24" ht="17.714" customHeight="true">
+        <v>2.0799999999999999E-2</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="3" t="s">
         <v>33</v>
       </c>
       <c r="B24" s="4">
-        <v>30.699999999999999</v>
+        <v>31.7</v>
       </c>
       <c r="C24" s="4">
-        <v>22.800000000000001</v>
+        <v>23.8</v>
       </c>
       <c r="D24" s="4">
         <v>0</v>
@@ -1568,24 +1884,24 @@
         <v>0</v>
       </c>
       <c r="J24" s="4">
-        <v>0.68000000000000005</v>
+        <v>0.74</v>
       </c>
       <c r="K24" s="4">
-        <v>0.00055599999999999996</v>
+        <v>5.6400000000000005E-4</v>
       </c>
       <c r="L24" s="4">
-        <v>0.020799999999999999</v>
-      </c>
-    </row>
-    <row r="25" ht="17.714" customHeight="true">
+        <v>2.0400000000000001E-2</v>
+      </c>
+    </row>
+    <row r="25" spans="1:12" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="3" t="s">
         <v>34</v>
       </c>
       <c r="B25" s="4">
-        <v>31.699999999999999</v>
+        <v>32.700000000000003</v>
       </c>
       <c r="C25" s="4">
-        <v>23.800000000000001</v>
+        <v>24.8</v>
       </c>
       <c r="D25" s="4">
         <v>0</v>
@@ -1606,24 +1922,24 @@
         <v>0</v>
       </c>
       <c r="J25" s="4">
-        <v>0.73999999999999999</v>
+        <v>0.8</v>
       </c>
       <c r="K25" s="4">
-        <v>0.00056400000000000005</v>
+        <v>6.1600000000000001E-4</v>
       </c>
       <c r="L25" s="4">
-        <v>0.020400000000000001</v>
-      </c>
-    </row>
-    <row r="26" ht="17.714" customHeight="true">
+        <v>2.2700000000000001E-2</v>
+      </c>
+    </row>
+    <row r="26" spans="1:12" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="3" t="s">
         <v>35</v>
       </c>
       <c r="B26" s="4">
-        <v>32.700000000000003</v>
+        <v>33.799999999999997</v>
       </c>
       <c r="C26" s="4">
-        <v>24.800000000000001</v>
+        <v>25.9</v>
       </c>
       <c r="D26" s="4">
         <v>0</v>
@@ -1644,24 +1960,24 @@
         <v>0</v>
       </c>
       <c r="J26" s="4">
-        <v>0.80000000000000004</v>
+        <v>0.87</v>
       </c>
       <c r="K26" s="4">
-        <v>0.00061600000000000001</v>
+        <v>6.2500000000000001E-4</v>
       </c>
       <c r="L26" s="4">
-        <v>0.022700000000000001</v>
-      </c>
-    </row>
-    <row r="27" ht="17.714" customHeight="true">
+        <v>2.1100000000000001E-2</v>
+      </c>
+    </row>
+    <row r="27" spans="1:12" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="3" t="s">
         <v>36</v>
       </c>
       <c r="B27" s="4">
-        <v>33.799999999999997</v>
+        <v>34.799999999999997</v>
       </c>
       <c r="C27" s="4">
-        <v>25.899999999999999</v>
+        <v>26.9</v>
       </c>
       <c r="D27" s="4">
         <v>0</v>
@@ -1682,24 +1998,24 @@
         <v>0</v>
       </c>
       <c r="J27" s="4">
-        <v>0.87</v>
+        <v>0.93</v>
       </c>
       <c r="K27" s="4">
-        <v>0.00062500000000000001</v>
+        <v>6.7199999999999996E-4</v>
       </c>
       <c r="L27" s="4">
-        <v>0.021100000000000001</v>
-      </c>
-    </row>
-    <row r="28" ht="17.714" customHeight="true">
+        <v>2.3300000000000001E-2</v>
+      </c>
+    </row>
+    <row r="28" spans="1:12" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="3" t="s">
         <v>37</v>
       </c>
       <c r="B28" s="4">
-        <v>34.799999999999997</v>
+        <v>35.9</v>
       </c>
       <c r="C28" s="4">
-        <v>26.899999999999999</v>
+        <v>27.9</v>
       </c>
       <c r="D28" s="4">
         <v>0</v>
@@ -1720,24 +2036,24 @@
         <v>0</v>
       </c>
       <c r="J28" s="4">
-        <v>0.93000000000000005</v>
+        <v>1</v>
       </c>
       <c r="K28" s="4">
-        <v>0.00067199999999999996</v>
+        <v>7.1599999999999995E-4</v>
       </c>
       <c r="L28" s="4">
-        <v>0.023300000000000001</v>
-      </c>
-    </row>
-    <row r="29" ht="17.714" customHeight="true">
+        <v>2.0299999999999999E-2</v>
+      </c>
+    </row>
+    <row r="29" spans="1:12" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="3" t="s">
         <v>38</v>
       </c>
       <c r="B29" s="4">
-        <v>35.899999999999999</v>
+        <v>36.9</v>
       </c>
       <c r="C29" s="4">
-        <v>27.899999999999999</v>
+        <v>29</v>
       </c>
       <c r="D29" s="4">
         <v>0</v>
@@ -1758,24 +2074,24 @@
         <v>0</v>
       </c>
       <c r="J29" s="4">
-        <v>1</v>
+        <v>1.08</v>
       </c>
       <c r="K29" s="4">
-        <v>0.00071599999999999995</v>
+        <v>7.54E-4</v>
       </c>
       <c r="L29" s="4">
-        <v>0.020299999999999999</v>
-      </c>
-    </row>
-    <row r="30" ht="17.714" customHeight="true">
+        <v>2.1899999999999999E-2</v>
+      </c>
+    </row>
+    <row r="30" spans="1:12" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="3" t="s">
         <v>39</v>
       </c>
       <c r="B30" s="4">
-        <v>36.899999999999999</v>
+        <v>37.9</v>
       </c>
       <c r="C30" s="4">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D30" s="4">
         <v>0</v>
@@ -1796,264 +2112,264 @@
         <v>0</v>
       </c>
       <c r="J30" s="4">
-        <v>1.0800000000000001</v>
+        <v>1.1499999999999999</v>
       </c>
       <c r="K30" s="4">
-        <v>0.000754</v>
+        <v>-1.39E-3</v>
       </c>
       <c r="L30" s="4">
-        <v>0.021899999999999999</v>
-      </c>
-    </row>
-    <row r="31" ht="17.714" customHeight="true">
+        <v>1.3</v>
+      </c>
+    </row>
+    <row r="31" spans="1:12" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="3" t="s">
         <v>40</v>
       </c>
       <c r="B31" s="4">
-        <v>37.899999999999999</v>
+        <v>103</v>
       </c>
       <c r="C31" s="4">
-        <v>30</v>
+        <v>60</v>
       </c>
       <c r="D31" s="4">
-        <v>0</v>
+        <v>495</v>
       </c>
       <c r="E31" s="4">
-        <v>0</v>
+        <v>65.2</v>
       </c>
       <c r="F31" s="4">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="G31" s="4">
-        <v>0</v>
+        <v>0.63</v>
       </c>
       <c r="H31" s="4">
-        <v>0</v>
+        <v>0.13</v>
       </c>
       <c r="I31" s="4">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="J31" s="4">
-        <v>1.1499999999999999</v>
+        <v>1</v>
       </c>
       <c r="K31" s="4">
-        <v>-0.00139</v>
+        <v>6.3E-3</v>
       </c>
       <c r="L31" s="4">
-        <v>1.3</v>
-      </c>
-    </row>
-    <row r="32" ht="17.714" customHeight="true">
+        <v>0.95</v>
+      </c>
+    </row>
+    <row r="32" spans="1:12" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="3" t="s">
         <v>41</v>
       </c>
       <c r="B32" s="4">
-        <v>103</v>
+        <v>151</v>
       </c>
       <c r="C32" s="4">
-        <v>60</v>
+        <v>108</v>
       </c>
       <c r="D32" s="4">
-        <v>495</v>
+        <v>557</v>
       </c>
       <c r="E32" s="4">
-        <v>65.200000000000003</v>
+        <v>61.7</v>
       </c>
       <c r="F32" s="4">
-        <v>0.10000000000000001</v>
+        <v>0.13</v>
       </c>
       <c r="G32" s="4">
-        <v>0.63</v>
+        <v>0.79</v>
       </c>
       <c r="H32" s="4">
-        <v>0.13</v>
+        <v>0.11</v>
       </c>
       <c r="I32" s="4">
         <v>5</v>
       </c>
       <c r="J32" s="4">
-        <v>1</v>
+        <v>0.89</v>
       </c>
       <c r="K32" s="4">
-        <v>0.0063</v>
+        <v>7.0600000000000003E-3</v>
       </c>
       <c r="L32" s="4">
-        <v>0.94999999999999996</v>
-      </c>
-    </row>
-    <row r="33" ht="17.714" customHeight="true">
+        <v>0.73</v>
+      </c>
+    </row>
+    <row r="33" spans="1:12" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="3" t="s">
         <v>42</v>
       </c>
       <c r="B33" s="4">
-        <v>151</v>
+        <v>188</v>
       </c>
       <c r="C33" s="4">
-        <v>108</v>
+        <v>145</v>
       </c>
       <c r="D33" s="4">
-        <v>557</v>
+        <v>599</v>
       </c>
       <c r="E33" s="4">
-        <v>61.700000000000003</v>
+        <v>62.2</v>
       </c>
       <c r="F33" s="4">
-        <v>0.13</v>
+        <v>0.16</v>
       </c>
       <c r="G33" s="4">
-        <v>0.79000000000000004</v>
+        <v>1</v>
       </c>
       <c r="H33" s="4">
-        <v>0.11</v>
+        <v>0.1</v>
       </c>
       <c r="I33" s="4">
         <v>5</v>
       </c>
       <c r="J33" s="4">
-        <v>0.89000000000000001</v>
+        <v>0.83</v>
       </c>
       <c r="K33" s="4">
-        <v>0.0070600000000000003</v>
+        <v>8.2699999999999996E-3</v>
       </c>
       <c r="L33" s="4">
-        <v>0.72999999999999998</v>
-      </c>
-    </row>
-    <row r="34" ht="17.714" customHeight="true">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="34" spans="1:12" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="3" t="s">
         <v>43</v>
       </c>
       <c r="B34" s="4">
-        <v>188</v>
+        <v>218</v>
       </c>
       <c r="C34" s="4">
-        <v>145</v>
+        <v>176</v>
       </c>
       <c r="D34" s="4">
-        <v>599</v>
+        <v>632</v>
       </c>
       <c r="E34" s="4">
-        <v>62.200000000000003</v>
+        <v>64.5</v>
       </c>
       <c r="F34" s="4">
-        <v>0.16</v>
+        <v>0.2</v>
       </c>
       <c r="G34" s="4">
-        <v>1</v>
+        <v>1.25</v>
       </c>
       <c r="H34" s="4">
-        <v>0.10000000000000001</v>
+        <v>0.1</v>
       </c>
       <c r="I34" s="4">
         <v>5</v>
       </c>
       <c r="J34" s="4">
-        <v>0.82999999999999996</v>
+        <v>0.79</v>
       </c>
       <c r="K34" s="4">
-        <v>0.0082699999999999996</v>
+        <v>9.8799999999999999E-3</v>
       </c>
       <c r="L34" s="4">
-        <v>0.59999999999999998</v>
-      </c>
-    </row>
-    <row r="35" ht="17.714" customHeight="true">
+        <v>0.53</v>
+      </c>
+    </row>
+    <row r="35" spans="1:12" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35" s="3" t="s">
         <v>44</v>
       </c>
       <c r="B35" s="4">
-        <v>218</v>
+        <v>242</v>
       </c>
       <c r="C35" s="4">
-        <v>176</v>
+        <v>199</v>
       </c>
       <c r="D35" s="4">
-        <v>632</v>
+        <v>658</v>
       </c>
       <c r="E35" s="4">
-        <v>64.5</v>
+        <v>68.099999999999994</v>
       </c>
       <c r="F35" s="4">
-        <v>0.20000000000000001</v>
+        <v>0.25</v>
       </c>
       <c r="G35" s="4">
-        <v>1.25</v>
+        <v>1.58</v>
       </c>
       <c r="H35" s="4">
-        <v>0.10000000000000001</v>
+        <v>0.1</v>
       </c>
       <c r="I35" s="4">
         <v>5</v>
       </c>
       <c r="J35" s="4">
-        <v>0.79000000000000004</v>
+        <v>0.76</v>
       </c>
       <c r="K35" s="4">
-        <v>0.0098799999999999999</v>
+        <v>1.1900000000000001E-2</v>
       </c>
       <c r="L35" s="4">
-        <v>0.53000000000000003</v>
-      </c>
-    </row>
-    <row r="36" ht="17.714" customHeight="true">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="36" spans="1:12" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A36" s="3" t="s">
         <v>45</v>
       </c>
       <c r="B36" s="4">
-        <v>242</v>
+        <v>261</v>
       </c>
       <c r="C36" s="4">
-        <v>199</v>
+        <v>218</v>
       </c>
       <c r="D36" s="4">
-        <v>658</v>
+        <v>682</v>
       </c>
       <c r="E36" s="4">
-        <v>68.099999999999994</v>
+        <v>72.900000000000006</v>
       </c>
       <c r="F36" s="4">
-        <v>0.25</v>
+        <v>0.32</v>
       </c>
       <c r="G36" s="4">
-        <v>1.5800000000000001</v>
+        <v>1.99</v>
       </c>
       <c r="H36" s="4">
-        <v>0.10000000000000001</v>
+        <v>0.11</v>
       </c>
       <c r="I36" s="4">
         <v>5</v>
       </c>
       <c r="J36" s="4">
-        <v>0.76000000000000001</v>
+        <v>0.73</v>
       </c>
       <c r="K36" s="4">
-        <v>0.011900000000000001</v>
+        <v>1.4500000000000001E-2</v>
       </c>
       <c r="L36" s="4">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="37" ht="17.714" customHeight="true">
+        <v>0.45</v>
+      </c>
+    </row>
+    <row r="37" spans="1:12" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A37" s="3" t="s">
         <v>46</v>
       </c>
       <c r="B37" s="4">
-        <v>261</v>
+        <v>276</v>
       </c>
       <c r="C37" s="4">
-        <v>218</v>
+        <v>233</v>
       </c>
       <c r="D37" s="4">
-        <v>682</v>
+        <v>703</v>
       </c>
       <c r="E37" s="4">
-        <v>72.900000000000006</v>
+        <v>77.8</v>
       </c>
       <c r="F37" s="4">
-        <v>0.32000000000000001</v>
+        <v>0.4</v>
       </c>
       <c r="G37" s="4">
-        <v>1.99</v>
+        <v>2.5</v>
       </c>
       <c r="H37" s="4">
         <v>0.11</v>
@@ -2062,36 +2378,36 @@
         <v>5</v>
       </c>
       <c r="J37" s="4">
-        <v>0.72999999999999998</v>
+        <v>0.71</v>
       </c>
       <c r="K37" s="4">
-        <v>0.014500000000000001</v>
+        <v>1.77E-2</v>
       </c>
       <c r="L37" s="4">
-        <v>0.45000000000000001</v>
-      </c>
-    </row>
-    <row r="38" ht="17.714" customHeight="true">
+        <v>0.41</v>
+      </c>
+    </row>
+    <row r="38" spans="1:12" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A38" s="3" t="s">
         <v>47</v>
       </c>
       <c r="B38" s="4">
-        <v>276</v>
+        <v>308</v>
       </c>
       <c r="C38" s="4">
-        <v>233</v>
+        <v>265</v>
       </c>
       <c r="D38" s="4">
-        <v>703</v>
+        <v>735</v>
       </c>
       <c r="E38" s="4">
-        <v>77.799999999999997</v>
+        <v>83.8</v>
       </c>
       <c r="F38" s="4">
-        <v>0.40000000000000002</v>
+        <v>0.5</v>
       </c>
       <c r="G38" s="4">
-        <v>2.5</v>
+        <v>3.15</v>
       </c>
       <c r="H38" s="4">
         <v>0.11</v>
@@ -2100,74 +2416,74 @@
         <v>5</v>
       </c>
       <c r="J38" s="4">
-        <v>0.70999999999999996</v>
+        <v>0.68</v>
       </c>
       <c r="K38" s="4">
-        <v>0.0177</v>
+        <v>2.1299999999999999E-2</v>
       </c>
       <c r="L38" s="4">
-        <v>0.40999999999999998</v>
-      </c>
-    </row>
-    <row r="39" ht="17.714" customHeight="true">
+        <v>0.38</v>
+      </c>
+    </row>
+    <row r="39" spans="1:12" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A39" s="3" t="s">
         <v>48</v>
       </c>
       <c r="B39" s="4">
-        <v>308</v>
+        <v>334</v>
       </c>
       <c r="C39" s="4">
-        <v>265</v>
+        <v>291</v>
       </c>
       <c r="D39" s="4">
-        <v>735</v>
+        <v>765</v>
       </c>
       <c r="E39" s="4">
-        <v>83.799999999999997</v>
+        <v>90.9</v>
       </c>
       <c r="F39" s="4">
-        <v>0.5</v>
+        <v>0.63</v>
       </c>
       <c r="G39" s="4">
-        <v>3.1499999999999999</v>
+        <v>3.96</v>
       </c>
       <c r="H39" s="4">
-        <v>0.11</v>
+        <v>0.12</v>
       </c>
       <c r="I39" s="4">
         <v>5</v>
       </c>
       <c r="J39" s="4">
-        <v>0.68000000000000005</v>
+        <v>0.65</v>
       </c>
       <c r="K39" s="4">
-        <v>0.021299999999999999</v>
+        <v>2.58E-2</v>
       </c>
       <c r="L39" s="4">
-        <v>0.38</v>
-      </c>
-    </row>
-    <row r="40" ht="17.714" customHeight="true">
+        <v>0.34</v>
+      </c>
+    </row>
+    <row r="40" spans="1:12" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A40" s="3" t="s">
         <v>49</v>
       </c>
       <c r="B40" s="4">
-        <v>334</v>
+        <v>354</v>
       </c>
       <c r="C40" s="4">
-        <v>291</v>
+        <v>311</v>
       </c>
       <c r="D40" s="4">
-        <v>765</v>
+        <v>792</v>
       </c>
       <c r="E40" s="4">
-        <v>90.900000000000006</v>
+        <v>97.7</v>
       </c>
       <c r="F40" s="4">
-        <v>0.63</v>
+        <v>0.79</v>
       </c>
       <c r="G40" s="4">
-        <v>3.96</v>
+        <v>4.99</v>
       </c>
       <c r="H40" s="4">
         <v>0.12</v>
@@ -2176,74 +2492,74 @@
         <v>5</v>
       </c>
       <c r="J40" s="4">
-        <v>0.65000000000000002</v>
+        <v>0.63</v>
       </c>
       <c r="K40" s="4">
-        <v>0.0258</v>
+        <v>3.1399999999999997E-2</v>
       </c>
       <c r="L40" s="4">
-        <v>0.34000000000000002</v>
-      </c>
-    </row>
-    <row r="41" ht="17.714" customHeight="true">
+        <v>0.31</v>
+      </c>
+    </row>
+    <row r="41" spans="1:12" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A41" s="3" t="s">
         <v>50</v>
       </c>
       <c r="B41" s="4">
-        <v>354</v>
+        <v>370</v>
       </c>
       <c r="C41" s="4">
-        <v>311</v>
+        <v>327</v>
       </c>
       <c r="D41" s="4">
-        <v>792</v>
+        <v>820</v>
       </c>
       <c r="E41" s="4">
-        <v>97.700000000000003</v>
+        <v>106</v>
       </c>
       <c r="F41" s="4">
-        <v>0.79000000000000004</v>
+        <v>1</v>
       </c>
       <c r="G41" s="4">
-        <v>4.9900000000000002</v>
+        <v>6.28</v>
       </c>
       <c r="H41" s="4">
-        <v>0.12</v>
+        <v>0.13</v>
       </c>
       <c r="I41" s="4">
         <v>5</v>
       </c>
       <c r="J41" s="4">
-        <v>0.63</v>
+        <v>0.61</v>
       </c>
       <c r="K41" s="4">
-        <v>0.031399999999999997</v>
+        <v>3.8300000000000001E-2</v>
       </c>
       <c r="L41" s="4">
-        <v>0.31</v>
-      </c>
-    </row>
-    <row r="42" ht="17.714" customHeight="true">
+        <v>0.27</v>
+      </c>
+    </row>
+    <row r="42" spans="1:12" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A42" s="3" t="s">
         <v>51</v>
       </c>
       <c r="B42" s="4">
-        <v>370</v>
+        <v>382</v>
       </c>
       <c r="C42" s="4">
-        <v>327</v>
+        <v>340</v>
       </c>
       <c r="D42" s="4">
-        <v>820</v>
+        <v>847</v>
       </c>
       <c r="E42" s="4">
-        <v>106</v>
+        <v>114</v>
       </c>
       <c r="F42" s="4">
-        <v>1</v>
+        <v>1.26</v>
       </c>
       <c r="G42" s="4">
-        <v>6.2800000000000002</v>
+        <v>7.91</v>
       </c>
       <c r="H42" s="4">
         <v>0.13</v>
@@ -2252,153 +2568,153 @@
         <v>5</v>
       </c>
       <c r="J42" s="4">
-        <v>0.60999999999999999</v>
+        <v>0.59</v>
       </c>
       <c r="K42" s="4">
-        <v>0.038300000000000001</v>
+        <v>4.6899999999999997E-2</v>
       </c>
       <c r="L42" s="4">
-        <v>0.27000000000000002</v>
-      </c>
-    </row>
-    <row r="43" ht="17.714" customHeight="true">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="43" spans="1:12" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A43" s="3" t="s">
         <v>52</v>
       </c>
       <c r="B43" s="4">
-        <v>382</v>
+        <v>393</v>
       </c>
       <c r="C43" s="4">
-        <v>340</v>
+        <v>350</v>
       </c>
       <c r="D43" s="4">
-        <v>847</v>
+        <v>872</v>
       </c>
       <c r="E43" s="4">
-        <v>114</v>
+        <v>122</v>
       </c>
       <c r="F43" s="4">
-        <v>1.26</v>
+        <v>1.58</v>
       </c>
       <c r="G43" s="4">
-        <v>7.9100000000000001</v>
+        <v>9.9600000000000009</v>
       </c>
       <c r="H43" s="4">
-        <v>0.13</v>
+        <v>0.14000000000000001</v>
       </c>
       <c r="I43" s="4">
         <v>5</v>
       </c>
       <c r="J43" s="4">
-        <v>0.58999999999999997</v>
+        <v>0.57999999999999996</v>
       </c>
       <c r="K43" s="4">
-        <v>0.046899999999999997</v>
+        <v>5.7599999999999998E-2</v>
       </c>
       <c r="L43" s="4">
-        <v>0.25</v>
-      </c>
-    </row>
-    <row r="44" ht="17.714" customHeight="true">
+        <v>0.22</v>
+      </c>
+    </row>
+    <row r="44" spans="1:12" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A44" s="3" t="s">
         <v>53</v>
       </c>
       <c r="B44" s="4">
-        <v>393</v>
+        <v>401</v>
       </c>
       <c r="C44" s="4">
-        <v>350</v>
+        <v>358</v>
       </c>
       <c r="D44" s="4">
-        <v>872</v>
+        <v>896</v>
       </c>
       <c r="E44" s="4">
-        <v>122</v>
+        <v>131</v>
       </c>
       <c r="F44" s="4">
-        <v>1.5800000000000001</v>
+        <v>2</v>
       </c>
       <c r="G44" s="4">
-        <v>9.9600000000000009</v>
+        <v>12.5</v>
       </c>
       <c r="H44" s="4">
-        <v>0.14000000000000001</v>
+        <v>0.15</v>
       </c>
       <c r="I44" s="4">
         <v>5</v>
       </c>
       <c r="J44" s="4">
-        <v>0.57999999999999996</v>
+        <v>0.56999999999999995</v>
       </c>
       <c r="K44" s="4">
-        <v>0.057599999999999998</v>
+        <v>7.1199999999999999E-2</v>
       </c>
       <c r="L44" s="4">
-        <v>0.22</v>
-      </c>
-    </row>
-    <row r="45" ht="17.714" customHeight="true">
+        <v>0.21</v>
+      </c>
+    </row>
+    <row r="45" spans="1:12" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A45" s="3" t="s">
         <v>54</v>
       </c>
       <c r="B45" s="4">
-        <v>401</v>
+        <v>407</v>
       </c>
       <c r="C45" s="4">
-        <v>358</v>
+        <v>364</v>
       </c>
       <c r="D45" s="4">
-        <v>896</v>
+        <v>922</v>
       </c>
       <c r="E45" s="4">
-        <v>131</v>
+        <v>140</v>
       </c>
       <c r="F45" s="4">
-        <v>2</v>
+        <v>2.5099999999999998</v>
       </c>
       <c r="G45" s="4">
-        <v>12.5</v>
+        <v>15.8</v>
       </c>
       <c r="H45" s="4">
-        <v>0.14999999999999999</v>
+        <v>0.15</v>
       </c>
       <c r="I45" s="4">
         <v>5</v>
       </c>
       <c r="J45" s="4">
-        <v>0.56999999999999995</v>
+        <v>0.56000000000000005</v>
       </c>
       <c r="K45" s="4">
-        <v>0.071199999999999999</v>
+        <v>8.8499999999999995E-2</v>
       </c>
       <c r="L45" s="4">
-        <v>0.20999999999999999</v>
-      </c>
-    </row>
-    <row r="46" ht="17.714" customHeight="true">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="46" spans="1:12" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A46" s="3" t="s">
         <v>55</v>
       </c>
       <c r="B46" s="4">
-        <v>407</v>
+        <v>412</v>
       </c>
       <c r="C46" s="4">
-        <v>364</v>
+        <v>369</v>
       </c>
       <c r="D46" s="4">
-        <v>922</v>
+        <v>947</v>
       </c>
       <c r="E46" s="4">
-        <v>140</v>
+        <v>150</v>
       </c>
       <c r="F46" s="4">
-        <v>2.5099999999999998</v>
+        <v>3.16</v>
       </c>
       <c r="G46" s="4">
-        <v>15.800000000000001</v>
+        <v>19.899999999999999</v>
       </c>
       <c r="H46" s="4">
-        <v>0.14999999999999999</v>
+        <v>0.16</v>
       </c>
       <c r="I46" s="4">
         <v>5</v>
@@ -2407,33 +2723,33 @@
         <v>0.56000000000000005</v>
       </c>
       <c r="K46" s="4">
-        <v>0.088499999999999995</v>
+        <v>0.11</v>
       </c>
       <c r="L46" s="4">
-        <v>0.20000000000000001</v>
-      </c>
-    </row>
-    <row r="47" ht="17.714" customHeight="true">
+        <v>0.18</v>
+      </c>
+    </row>
+    <row r="47" spans="1:12" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A47" s="3" t="s">
         <v>56</v>
       </c>
       <c r="B47" s="4">
-        <v>412</v>
+        <v>416</v>
       </c>
       <c r="C47" s="4">
-        <v>369</v>
+        <v>373</v>
       </c>
       <c r="D47" s="4">
-        <v>947</v>
+        <v>973</v>
       </c>
       <c r="E47" s="4">
-        <v>150</v>
+        <v>160</v>
       </c>
       <c r="F47" s="4">
-        <v>3.1600000000000001</v>
+        <v>3.98</v>
       </c>
       <c r="G47" s="4">
-        <v>19.899999999999999</v>
+        <v>25</v>
       </c>
       <c r="H47" s="4">
         <v>0.16</v>
@@ -2442,510 +2758,510 @@
         <v>5</v>
       </c>
       <c r="J47" s="4">
-        <v>0.56000000000000005</v>
+        <v>0.56999999999999995</v>
       </c>
       <c r="K47" s="4">
-        <v>0.11</v>
+        <v>0.14000000000000001</v>
       </c>
       <c r="L47" s="4">
-        <v>0.17999999999999999</v>
-      </c>
-    </row>
-    <row r="48" ht="17.714" customHeight="true">
+        <v>0.17</v>
+      </c>
+    </row>
+    <row r="48" spans="1:12" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A48" s="3" t="s">
         <v>57</v>
       </c>
       <c r="B48" s="4">
-        <v>416</v>
+        <v>423</v>
       </c>
       <c r="C48" s="4">
-        <v>373</v>
+        <v>380</v>
       </c>
       <c r="D48" s="4">
-        <v>973</v>
+        <v>1000</v>
       </c>
       <c r="E48" s="4">
-        <v>160</v>
+        <v>172</v>
       </c>
       <c r="F48" s="4">
-        <v>3.98</v>
+        <v>5.01</v>
       </c>
       <c r="G48" s="4">
-        <v>25</v>
+        <v>31.5</v>
       </c>
       <c r="H48" s="4">
-        <v>0.16</v>
+        <v>0.17</v>
       </c>
       <c r="I48" s="4">
         <v>5</v>
       </c>
       <c r="J48" s="4">
-        <v>0.56999999999999995</v>
+        <v>0.57999999999999996</v>
       </c>
       <c r="K48" s="4">
-        <v>0.14000000000000001</v>
+        <v>0.18</v>
       </c>
       <c r="L48" s="4">
-        <v>0.17000000000000001</v>
-      </c>
-    </row>
-    <row r="49" ht="17.714" customHeight="true">
+        <v>0.17</v>
+      </c>
+    </row>
+    <row r="49" spans="1:12" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A49" s="3" t="s">
         <v>58</v>
       </c>
       <c r="B49" s="4">
-        <v>423</v>
+        <v>429</v>
       </c>
       <c r="C49" s="4">
-        <v>380</v>
+        <v>386</v>
       </c>
       <c r="D49" s="4">
-        <v>1000</v>
+        <v>1030</v>
       </c>
       <c r="E49" s="4">
-        <v>172</v>
+        <v>182</v>
       </c>
       <c r="F49" s="4">
-        <v>5.0099999999999998</v>
+        <v>6.31</v>
       </c>
       <c r="G49" s="4">
-        <v>31.5</v>
+        <v>39.6</v>
       </c>
       <c r="H49" s="4">
-        <v>0.17000000000000001</v>
+        <v>0.18</v>
       </c>
       <c r="I49" s="4">
         <v>5</v>
       </c>
       <c r="J49" s="4">
-        <v>0.57999999999999996</v>
+        <v>0.64</v>
       </c>
       <c r="K49" s="4">
-        <v>0.17999999999999999</v>
+        <v>0.25</v>
       </c>
       <c r="L49" s="4">
-        <v>0.17000000000000001</v>
-      </c>
-    </row>
-    <row r="50" ht="17.714" customHeight="true">
+        <v>0.17</v>
+      </c>
+    </row>
+    <row r="50" spans="1:12" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A50" s="3" t="s">
         <v>59</v>
       </c>
       <c r="B50" s="4">
-        <v>429</v>
+        <v>434</v>
       </c>
       <c r="C50" s="4">
-        <v>386</v>
+        <v>391</v>
       </c>
       <c r="D50" s="4">
-        <v>1030</v>
+        <v>1060</v>
       </c>
       <c r="E50" s="4">
-        <v>182</v>
+        <v>195</v>
       </c>
       <c r="F50" s="4">
-        <v>6.3099999999999996</v>
+        <v>7.94</v>
       </c>
       <c r="G50" s="4">
-        <v>39.600000000000001</v>
+        <v>49.9</v>
       </c>
       <c r="H50" s="4">
-        <v>0.17999999999999999</v>
+        <v>0.18</v>
       </c>
       <c r="I50" s="4">
         <v>5</v>
       </c>
       <c r="J50" s="4">
-        <v>0.64000000000000001</v>
+        <v>0.74</v>
       </c>
       <c r="K50" s="4">
-        <v>0.25</v>
+        <v>0.37</v>
       </c>
       <c r="L50" s="4">
-        <v>0.17000000000000001</v>
-      </c>
-    </row>
-    <row r="51" ht="17.714" customHeight="true">
+        <v>0.15</v>
+      </c>
+    </row>
+    <row r="51" spans="1:12" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A51" s="3" t="s">
         <v>60</v>
       </c>
       <c r="B51" s="4">
-        <v>434</v>
+        <v>438</v>
       </c>
       <c r="C51" s="4">
-        <v>391</v>
+        <v>395</v>
       </c>
       <c r="D51" s="4">
-        <v>1060</v>
+        <v>1090</v>
       </c>
       <c r="E51" s="4">
-        <v>195</v>
+        <v>206</v>
       </c>
       <c r="F51" s="4">
-        <v>7.9400000000000004</v>
+        <v>10</v>
       </c>
       <c r="G51" s="4">
-        <v>49.899999999999999</v>
+        <v>62.8</v>
       </c>
       <c r="H51" s="4">
-        <v>0.17999999999999999</v>
+        <v>0.19</v>
       </c>
       <c r="I51" s="4">
         <v>5</v>
       </c>
       <c r="J51" s="4">
-        <v>0.73999999999999999</v>
+        <v>1.06</v>
       </c>
       <c r="K51" s="4">
-        <v>0.37</v>
+        <v>0.67</v>
       </c>
       <c r="L51" s="4">
-        <v>0.14999999999999999</v>
-      </c>
-    </row>
-    <row r="52" ht="17.714" customHeight="true">
+        <v>0.15</v>
+      </c>
+    </row>
+    <row r="52" spans="1:12" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A52" s="3" t="s">
         <v>61</v>
       </c>
       <c r="B52" s="4">
-        <v>438</v>
+        <v>440</v>
       </c>
       <c r="C52" s="4">
-        <v>395</v>
+        <v>398</v>
       </c>
       <c r="D52" s="4">
-        <v>1090</v>
+        <v>1100</v>
       </c>
       <c r="E52" s="4">
-        <v>206</v>
+        <v>210</v>
       </c>
       <c r="F52" s="4">
-        <v>10</v>
+        <v>12.6</v>
       </c>
       <c r="G52" s="4">
-        <v>62.799999999999997</v>
+        <v>79.099999999999994</v>
       </c>
       <c r="H52" s="4">
         <v>0.19</v>
       </c>
       <c r="I52" s="4">
-        <v>5</v>
+        <v>4.99</v>
       </c>
       <c r="J52" s="4">
-        <v>1.0600000000000001</v>
+        <v>2.21</v>
       </c>
       <c r="K52" s="4">
-        <v>0.67000000000000004</v>
+        <v>1.75</v>
       </c>
       <c r="L52" s="4">
-        <v>0.14999999999999999</v>
-      </c>
-    </row>
-    <row r="53" ht="17.714" customHeight="true">
+        <v>0.15</v>
+      </c>
+    </row>
+    <row r="53" spans="1:12" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A53" s="3" t="s">
         <v>62</v>
       </c>
       <c r="B53" s="4">
-        <v>440</v>
+        <v>443</v>
       </c>
       <c r="C53" s="4">
-        <v>398</v>
+        <v>400</v>
       </c>
       <c r="D53" s="4">
-        <v>1100</v>
+        <v>1150</v>
       </c>
       <c r="E53" s="4">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="F53" s="4">
-        <v>12.6</v>
+        <v>15.8</v>
       </c>
       <c r="G53" s="4">
-        <v>79.099999999999994</v>
+        <v>99.6</v>
       </c>
       <c r="H53" s="4">
-        <v>0.19</v>
+        <v>0.18</v>
       </c>
       <c r="I53" s="4">
-        <v>4.9900000000000002</v>
+        <v>4.99</v>
       </c>
       <c r="J53" s="4">
-        <v>2.21</v>
+        <v>0.86</v>
       </c>
       <c r="K53" s="4">
-        <v>1.75</v>
+        <v>0.86</v>
       </c>
       <c r="L53" s="4">
-        <v>0.14999999999999999</v>
-      </c>
-    </row>
-    <row r="54" ht="17.714" customHeight="true">
+        <v>0.14000000000000001</v>
+      </c>
+    </row>
+    <row r="54" spans="1:12" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A54" s="3" t="s">
         <v>63</v>
       </c>
       <c r="B54" s="4">
-        <v>443</v>
+        <v>445</v>
       </c>
       <c r="C54" s="4">
-        <v>400</v>
+        <v>402</v>
       </c>
       <c r="D54" s="4">
-        <v>1150</v>
+        <v>1190</v>
       </c>
       <c r="E54" s="4">
-        <v>211</v>
+        <v>203</v>
       </c>
       <c r="F54" s="4">
-        <v>15.800000000000001</v>
+        <v>20</v>
       </c>
       <c r="G54" s="4">
-        <v>99.599999999999994</v>
+        <v>125</v>
       </c>
       <c r="H54" s="4">
-        <v>0.17999999999999999</v>
+        <v>0.17</v>
       </c>
       <c r="I54" s="4">
-        <v>4.9900000000000002</v>
+        <v>4.99</v>
       </c>
       <c r="J54" s="4">
-        <v>0.85999999999999999</v>
+        <v>0.34</v>
       </c>
       <c r="K54" s="4">
-        <v>0.85999999999999999</v>
+        <v>0.42</v>
       </c>
       <c r="L54" s="4">
         <v>0.14000000000000001</v>
       </c>
     </row>
-    <row r="55" ht="17.714" customHeight="true">
+    <row r="55" spans="1:12" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A55" s="3" t="s">
         <v>64</v>
       </c>
       <c r="B55" s="4">
-        <v>445</v>
+        <v>447</v>
       </c>
       <c r="C55" s="4">
-        <v>402</v>
+        <v>404</v>
       </c>
       <c r="D55" s="4">
-        <v>1190</v>
+        <v>1250</v>
       </c>
       <c r="E55" s="4">
-        <v>203</v>
+        <v>172</v>
       </c>
       <c r="F55" s="4">
-        <v>20</v>
+        <v>25.1</v>
       </c>
       <c r="G55" s="4">
-        <v>125</v>
+        <v>158</v>
       </c>
       <c r="H55" s="4">
-        <v>0.17000000000000001</v>
+        <v>0.14000000000000001</v>
       </c>
       <c r="I55" s="4">
-        <v>4.9900000000000002</v>
+        <v>4.99</v>
       </c>
       <c r="J55" s="4">
-        <v>0.34000000000000002</v>
+        <v>0.17</v>
       </c>
       <c r="K55" s="4">
-        <v>0.41999999999999998</v>
+        <v>0.26</v>
       </c>
       <c r="L55" s="4">
         <v>0.14000000000000001</v>
       </c>
     </row>
-    <row r="56" ht="17.714" customHeight="true">
+    <row r="56" spans="1:12" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A56" s="3" t="s">
         <v>65</v>
       </c>
       <c r="B56" s="4">
-        <v>447</v>
+        <v>450</v>
       </c>
       <c r="C56" s="4">
-        <v>404</v>
+        <v>407</v>
       </c>
       <c r="D56" s="4">
-        <v>1250</v>
+        <v>1210</v>
       </c>
       <c r="E56" s="4">
-        <v>172</v>
+        <v>87</v>
       </c>
       <c r="F56" s="4">
-        <v>25.100000000000001</v>
+        <v>31.6</v>
       </c>
       <c r="G56" s="4">
-        <v>158</v>
+        <v>199</v>
       </c>
       <c r="H56" s="4">
-        <v>0.14000000000000001</v>
+        <v>7.1900000000000006E-2</v>
       </c>
       <c r="I56" s="4">
-        <v>4.9900000000000002</v>
+        <v>4.9800000000000004</v>
       </c>
       <c r="J56" s="4">
-        <v>0.17000000000000001</v>
+        <v>9.11E-2</v>
       </c>
       <c r="K56" s="4">
-        <v>0.26000000000000001</v>
+        <v>0.18</v>
       </c>
       <c r="L56" s="4">
         <v>0.14000000000000001</v>
       </c>
     </row>
-    <row r="57" ht="17.714" customHeight="true">
+    <row r="57" spans="1:12" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A57" s="3" t="s">
         <v>66</v>
       </c>
       <c r="B57" s="4">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="C57" s="4">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="D57" s="4">
-        <v>1210</v>
+        <v>1400</v>
       </c>
       <c r="E57" s="4">
-        <v>87</v>
+        <v>58.6</v>
       </c>
       <c r="F57" s="4">
-        <v>31.600000000000001</v>
+        <v>39.799999999999997</v>
       </c>
       <c r="G57" s="4">
-        <v>199</v>
+        <v>250</v>
       </c>
       <c r="H57" s="4">
-        <v>0.071900000000000006</v>
+        <v>4.2599999999999999E-2</v>
       </c>
       <c r="I57" s="4">
         <v>4.9800000000000004</v>
       </c>
       <c r="J57" s="4">
-        <v>0.0911</v>
+        <v>5.4199999999999998E-2</v>
       </c>
       <c r="K57" s="4">
-        <v>0.17999999999999999</v>
+        <v>0.14000000000000001</v>
       </c>
       <c r="L57" s="4">
         <v>0.14000000000000001</v>
       </c>
     </row>
-    <row r="58" ht="17.714" customHeight="true">
+    <row r="58" spans="1:12" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A58" s="3" t="s">
         <v>67</v>
       </c>
       <c r="B58" s="4">
-        <v>451</v>
+        <v>453</v>
       </c>
       <c r="C58" s="4">
-        <v>408</v>
+        <v>410</v>
       </c>
       <c r="D58" s="4">
-        <v>1400</v>
+        <v>1530</v>
       </c>
       <c r="E58" s="4">
-        <v>58.600000000000001</v>
+        <v>53.4</v>
       </c>
       <c r="F58" s="4">
-        <v>39.799999999999997</v>
+        <v>50.1</v>
       </c>
       <c r="G58" s="4">
-        <v>250</v>
+        <v>315</v>
       </c>
       <c r="H58" s="4">
-        <v>0.042599999999999999</v>
+        <v>3.7499999999999999E-2</v>
       </c>
       <c r="I58" s="4">
-        <v>4.9800000000000004</v>
+        <v>4.97</v>
       </c>
       <c r="J58" s="4">
-        <v>0.054199999999999998</v>
+        <v>3.2599999999999997E-2</v>
       </c>
       <c r="K58" s="4">
-        <v>0.14000000000000001</v>
+        <v>0.1</v>
       </c>
       <c r="L58" s="4">
         <v>0.14000000000000001</v>
       </c>
     </row>
-    <row r="59" ht="17.714" customHeight="true">
+    <row r="59" spans="1:12" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A59" s="3" t="s">
         <v>68</v>
       </c>
       <c r="B59" s="4">
-        <v>453</v>
+        <v>454</v>
       </c>
       <c r="C59" s="4">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="D59" s="4">
-        <v>1530</v>
+        <v>1480</v>
       </c>
       <c r="E59" s="4">
-        <v>53.399999999999999</v>
+        <v>140</v>
       </c>
       <c r="F59" s="4">
-        <v>50.100000000000001</v>
+        <v>63.1</v>
       </c>
       <c r="G59" s="4">
-        <v>315</v>
+        <v>396</v>
       </c>
       <c r="H59" s="4">
-        <v>0.037499999999999999</v>
+        <v>0.16</v>
       </c>
       <c r="I59" s="4">
-        <v>4.9699999999999998</v>
+        <v>4.97</v>
       </c>
       <c r="J59" s="4">
-        <v>0.032599999999999997</v>
+        <v>1.9800000000000002E-2</v>
       </c>
       <c r="K59" s="4">
-        <v>0.10000000000000001</v>
+        <v>7.8399999999999997E-2</v>
       </c>
       <c r="L59" s="4">
         <v>0.14000000000000001</v>
       </c>
     </row>
-    <row r="60" ht="17.714" customHeight="true">
+    <row r="60" spans="1:12" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A60" s="3" t="s">
         <v>69</v>
       </c>
       <c r="B60" s="4">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="C60" s="4">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="D60" s="4">
-        <v>1480</v>
+        <v>1610</v>
       </c>
       <c r="E60" s="4">
-        <v>140</v>
+        <v>433</v>
       </c>
       <c r="F60" s="4">
-        <v>63.100000000000001</v>
+        <v>79.400000000000006</v>
       </c>
       <c r="G60" s="4">
-        <v>396</v>
+        <v>499</v>
       </c>
       <c r="H60" s="4">
-        <v>0.16</v>
+        <v>0.52</v>
       </c>
       <c r="I60" s="4">
-        <v>4.9699999999999998</v>
+        <v>4.96</v>
       </c>
       <c r="J60" s="4">
-        <v>0.019800000000000002</v>
+        <v>1.2200000000000001E-2</v>
       </c>
       <c r="K60" s="4">
-        <v>0.078399999999999997</v>
+        <v>6.08E-2</v>
       </c>
       <c r="L60" s="4">
-        <v>0.14000000000000001</v>
-      </c>
-    </row>
-    <row r="61" ht="17.714" customHeight="true">
+        <v>0.13</v>
+      </c>
+    </row>
+    <row r="61" spans="1:12" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A61" s="3" t="s">
         <v>70</v>
       </c>
@@ -2956,80 +3272,80 @@
         <v>412</v>
       </c>
       <c r="D61" s="4">
-        <v>1610</v>
+        <v>1110</v>
       </c>
       <c r="E61" s="4">
-        <v>433</v>
+        <v>1360</v>
       </c>
       <c r="F61" s="4">
-        <v>79.400000000000006</v>
+        <v>100</v>
       </c>
       <c r="G61" s="4">
-        <v>499</v>
+        <v>628</v>
       </c>
       <c r="H61" s="4">
-        <v>0.52000000000000002</v>
+        <v>1.82</v>
       </c>
       <c r="I61" s="4">
-        <v>4.96</v>
+        <v>4.9400000000000004</v>
       </c>
       <c r="J61" s="4">
-        <v>0.012200000000000001</v>
+        <v>7.3499999999999998E-3</v>
       </c>
       <c r="K61" s="4">
-        <v>0.0608</v>
+        <v>4.6199999999999998E-2</v>
       </c>
       <c r="L61" s="4">
         <v>0.13</v>
       </c>
     </row>
-    <row r="62" ht="17.714" customHeight="true">
+    <row r="62" spans="1:12" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A62" s="3" t="s">
         <v>71</v>
       </c>
       <c r="B62" s="4">
-        <v>455</v>
+        <v>463</v>
       </c>
       <c r="C62" s="4">
-        <v>412</v>
+        <v>6.01</v>
       </c>
       <c r="D62" s="4">
-        <v>1110</v>
+        <v>0</v>
       </c>
       <c r="E62" s="4">
-        <v>1360</v>
+        <v>0</v>
       </c>
       <c r="F62" s="4">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="G62" s="4">
-        <v>628</v>
+        <v>0</v>
       </c>
       <c r="H62" s="4">
-        <v>1.8200000000000001</v>
+        <v>0</v>
       </c>
       <c r="I62" s="4">
-        <v>4.9400000000000004</v>
-      </c>
-      <c r="J62" s="4">
-        <v>0.0073499999999999998</v>
+        <v>315</v>
+      </c>
+      <c r="J62" s="5">
+        <v>171000</v>
       </c>
       <c r="K62" s="4">
-        <v>0.046199999999999998</v>
+        <v>300</v>
       </c>
       <c r="L62" s="4">
-        <v>0.13</v>
-      </c>
-    </row>
-    <row r="63" ht="17.714" customHeight="true">
+        <v>-4.5199999999999997E-2</v>
+      </c>
+    </row>
+    <row r="63" spans="1:12" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A63" s="3" t="s">
         <v>72</v>
       </c>
       <c r="B63" s="4">
-        <v>463</v>
+        <v>469</v>
       </c>
       <c r="C63" s="4">
-        <v>6.0099999999999998</v>
+        <v>12</v>
       </c>
       <c r="D63" s="4">
         <v>0</v>
@@ -3047,27 +3363,27 @@
         <v>0</v>
       </c>
       <c r="I63" s="4">
-        <v>315</v>
+        <v>356</v>
       </c>
       <c r="J63" s="5">
-        <v>171000</v>
+        <v>351000</v>
       </c>
       <c r="K63" s="4">
         <v>300</v>
       </c>
       <c r="L63" s="4">
-        <v>-0.045199999999999997</v>
-      </c>
-    </row>
-    <row r="64" ht="17.714" customHeight="true">
+        <v>1.5900000000000001E-2</v>
+      </c>
+    </row>
+    <row r="64" spans="1:12" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A64" s="3" t="s">
         <v>73</v>
       </c>
       <c r="B64" s="4">
-        <v>469</v>
+        <v>475</v>
       </c>
       <c r="C64" s="4">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="D64" s="4">
         <v>0</v>
@@ -3088,24 +3404,24 @@
         <v>356</v>
       </c>
       <c r="J64" s="5">
-        <v>351000</v>
+        <v>531000</v>
       </c>
       <c r="K64" s="4">
         <v>300</v>
       </c>
       <c r="L64" s="4">
-        <v>0.015900000000000001</v>
-      </c>
-    </row>
-    <row r="65" ht="17.714" customHeight="true">
+        <v>6.5500000000000003E-3</v>
+      </c>
+    </row>
+    <row r="65" spans="1:12" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A65" s="3" t="s">
         <v>74</v>
       </c>
       <c r="B65" s="4">
-        <v>475</v>
+        <v>481</v>
       </c>
       <c r="C65" s="4">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="D65" s="4">
         <v>0</v>
@@ -3123,27 +3439,27 @@
         <v>0</v>
       </c>
       <c r="I65" s="4">
-        <v>356</v>
+        <v>362</v>
       </c>
       <c r="J65" s="5">
-        <v>531000</v>
+        <v>711000</v>
       </c>
       <c r="K65" s="4">
         <v>300</v>
       </c>
       <c r="L65" s="4">
-        <v>0.0065500000000000003</v>
-      </c>
-    </row>
-    <row r="66" ht="17.714" customHeight="true">
+        <v>1.7899999999999999E-2</v>
+      </c>
+    </row>
+    <row r="66" spans="1:12" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A66" s="3" t="s">
         <v>75</v>
       </c>
       <c r="B66" s="4">
-        <v>481</v>
+        <v>487</v>
       </c>
       <c r="C66" s="4">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="D66" s="4">
         <v>0</v>
@@ -3161,27 +3477,27 @@
         <v>0</v>
       </c>
       <c r="I66" s="4">
-        <v>362</v>
+        <v>367</v>
       </c>
       <c r="J66" s="5">
-        <v>711000</v>
+        <v>891000</v>
       </c>
       <c r="K66" s="4">
         <v>300</v>
       </c>
       <c r="L66" s="4">
-        <v>0.017899999999999999</v>
-      </c>
-    </row>
-    <row r="67" ht="17.714" customHeight="true">
+        <v>1.9400000000000001E-2</v>
+      </c>
+    </row>
+    <row r="67" spans="1:12" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A67" s="3" t="s">
         <v>76</v>
       </c>
       <c r="B67" s="4">
-        <v>487</v>
+        <v>493</v>
       </c>
       <c r="C67" s="4">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="D67" s="4">
         <v>0</v>
@@ -3199,27 +3515,27 @@
         <v>0</v>
       </c>
       <c r="I67" s="4">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="J67" s="5">
-        <v>891000</v>
+        <v>1070000</v>
       </c>
       <c r="K67" s="4">
         <v>300</v>
       </c>
       <c r="L67" s="4">
-        <v>0.019400000000000001</v>
-      </c>
-    </row>
-    <row r="68" ht="17.714" customHeight="true">
+        <v>1.37E-2</v>
+      </c>
+    </row>
+    <row r="68" spans="1:12" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A68" s="3" t="s">
         <v>77</v>
       </c>
       <c r="B68" s="4">
-        <v>493</v>
+        <v>499</v>
       </c>
       <c r="C68" s="4">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="D68" s="4">
         <v>0</v>
@@ -3237,27 +3553,27 @@
         <v>0</v>
       </c>
       <c r="I68" s="4">
-        <v>366</v>
+        <v>356</v>
       </c>
       <c r="J68" s="5">
-        <v>1070000</v>
+        <v>1250000</v>
       </c>
       <c r="K68" s="4">
         <v>300</v>
       </c>
       <c r="L68" s="4">
-        <v>0.0137</v>
-      </c>
-    </row>
-    <row r="69" ht="17.714" customHeight="true">
+        <v>-2.5999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="69" spans="1:12" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A69" s="3" t="s">
         <v>78</v>
       </c>
       <c r="B69" s="4">
-        <v>499</v>
+        <v>505</v>
       </c>
       <c r="C69" s="4">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="D69" s="4">
         <v>0</v>
@@ -3275,27 +3591,27 @@
         <v>0</v>
       </c>
       <c r="I69" s="4">
-        <v>356</v>
+        <v>352</v>
       </c>
       <c r="J69" s="5">
-        <v>1250000</v>
+        <v>1430000</v>
       </c>
       <c r="K69" s="4">
         <v>300</v>
       </c>
       <c r="L69" s="4">
-        <v>-0.025999999999999999</v>
-      </c>
-    </row>
-    <row r="70" ht="17.714" customHeight="true">
+        <v>-2.1199999999999999E-3</v>
+      </c>
+    </row>
+    <row r="70" spans="1:12" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A70" s="3" t="s">
         <v>79</v>
       </c>
       <c r="B70" s="4">
-        <v>505</v>
+        <v>511</v>
       </c>
       <c r="C70" s="4">
-        <v>48</v>
+        <v>54</v>
       </c>
       <c r="D70" s="4">
         <v>0</v>
@@ -3313,27 +3629,27 @@
         <v>0</v>
       </c>
       <c r="I70" s="4">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="J70" s="5">
-        <v>1430000</v>
+        <v>1610000</v>
       </c>
       <c r="K70" s="4">
         <v>300</v>
       </c>
       <c r="L70" s="4">
-        <v>-0.0021199999999999999</v>
-      </c>
-    </row>
-    <row r="71" ht="17.714" customHeight="true">
+        <v>7.7299999999999999E-3</v>
+      </c>
+    </row>
+    <row r="71" spans="1:12" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A71" s="3" t="s">
         <v>80</v>
       </c>
       <c r="B71" s="4">
-        <v>511</v>
+        <v>517</v>
       </c>
       <c r="C71" s="4">
-        <v>54</v>
+        <v>60</v>
       </c>
       <c r="D71" s="4">
         <v>0</v>
@@ -3351,27 +3667,27 @@
         <v>0</v>
       </c>
       <c r="I71" s="4">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="J71" s="5">
-        <v>1610000</v>
+        <v>1790000</v>
       </c>
       <c r="K71" s="4">
         <v>300</v>
       </c>
       <c r="L71" s="4">
-        <v>0.0077299999999999999</v>
-      </c>
-    </row>
-    <row r="72" ht="17.714" customHeight="true">
+        <v>1.4800000000000001E-2</v>
+      </c>
+    </row>
+    <row r="72" spans="1:12" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A72" s="3" t="s">
         <v>81</v>
       </c>
       <c r="B72" s="4">
-        <v>517</v>
+        <v>523</v>
       </c>
       <c r="C72" s="4">
-        <v>60</v>
+        <v>66</v>
       </c>
       <c r="D72" s="4">
         <v>0</v>
@@ -3392,24 +3708,24 @@
         <v>352</v>
       </c>
       <c r="J72" s="5">
-        <v>1790000</v>
+        <v>1970000</v>
       </c>
       <c r="K72" s="4">
         <v>300</v>
       </c>
       <c r="L72" s="4">
-        <v>0.014800000000000001</v>
-      </c>
-    </row>
-    <row r="73" ht="17.714" customHeight="true">
+        <v>1.38E-2</v>
+      </c>
+    </row>
+    <row r="73" spans="1:12" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A73" s="3" t="s">
         <v>82</v>
       </c>
       <c r="B73" s="4">
-        <v>523</v>
+        <v>529</v>
       </c>
       <c r="C73" s="4">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="D73" s="4">
         <v>0</v>
@@ -3427,27 +3743,27 @@
         <v>0</v>
       </c>
       <c r="I73" s="4">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="J73" s="5">
-        <v>1970000</v>
+        <v>2150000</v>
       </c>
       <c r="K73" s="4">
         <v>300</v>
       </c>
       <c r="L73" s="4">
-        <v>0.0138</v>
-      </c>
-    </row>
-    <row r="74" ht="17.714" customHeight="true">
+        <v>2.8199999999999999E-2</v>
+      </c>
+    </row>
+    <row r="74" spans="1:12" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A74" s="3" t="s">
         <v>83</v>
       </c>
       <c r="B74" s="4">
-        <v>529</v>
+        <v>535</v>
       </c>
       <c r="C74" s="4">
-        <v>72</v>
+        <v>78</v>
       </c>
       <c r="D74" s="4">
         <v>0</v>
@@ -3465,27 +3781,27 @@
         <v>0</v>
       </c>
       <c r="I74" s="4">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="J74" s="5">
-        <v>2150000</v>
+        <v>2330000</v>
       </c>
       <c r="K74" s="4">
         <v>300</v>
       </c>
       <c r="L74" s="4">
-        <v>0.028199999999999999</v>
-      </c>
-    </row>
-    <row r="75" ht="17.714" customHeight="true">
+        <v>2.98E-2</v>
+      </c>
+    </row>
+    <row r="75" spans="1:12" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A75" s="3" t="s">
         <v>84</v>
       </c>
       <c r="B75" s="4">
-        <v>535</v>
+        <v>541</v>
       </c>
       <c r="C75" s="4">
-        <v>78</v>
+        <v>84</v>
       </c>
       <c r="D75" s="4">
         <v>0</v>
@@ -3506,24 +3822,24 @@
         <v>350</v>
       </c>
       <c r="J75" s="5">
-        <v>2330000</v>
+        <v>2510000</v>
       </c>
       <c r="K75" s="4">
         <v>300</v>
       </c>
       <c r="L75" s="4">
-        <v>0.0298</v>
-      </c>
-    </row>
-    <row r="76" ht="17.714" customHeight="true">
+        <v>2.5700000000000001E-2</v>
+      </c>
+    </row>
+    <row r="76" spans="1:12" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A76" s="3" t="s">
         <v>85</v>
       </c>
       <c r="B76" s="4">
-        <v>541</v>
+        <v>547</v>
       </c>
       <c r="C76" s="4">
-        <v>84</v>
+        <v>90</v>
       </c>
       <c r="D76" s="4">
         <v>0</v>
@@ -3541,27 +3857,27 @@
         <v>0</v>
       </c>
       <c r="I76" s="4">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="J76" s="5">
-        <v>2510000</v>
+        <v>2690000</v>
       </c>
       <c r="K76" s="4">
         <v>300</v>
       </c>
       <c r="L76" s="4">
-        <v>0.025700000000000001</v>
-      </c>
-    </row>
-    <row r="77" ht="17.714" customHeight="true">
+        <v>3.0599999999999999E-2</v>
+      </c>
+    </row>
+    <row r="77" spans="1:12" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A77" s="3" t="s">
         <v>86</v>
       </c>
       <c r="B77" s="4">
-        <v>547</v>
+        <v>553</v>
       </c>
       <c r="C77" s="4">
-        <v>90</v>
+        <v>96</v>
       </c>
       <c r="D77" s="4">
         <v>0</v>
@@ -3582,24 +3898,24 @@
         <v>349</v>
       </c>
       <c r="J77" s="5">
-        <v>2690000</v>
+        <v>2870000</v>
       </c>
       <c r="K77" s="4">
         <v>300</v>
       </c>
       <c r="L77" s="4">
-        <v>0.030599999999999999</v>
-      </c>
-    </row>
-    <row r="78" ht="17.714" customHeight="true">
+        <v>1.7399999999999999E-2</v>
+      </c>
+    </row>
+    <row r="78" spans="1:12" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A78" s="3" t="s">
         <v>87</v>
       </c>
       <c r="B78" s="4">
-        <v>553</v>
+        <v>559</v>
       </c>
       <c r="C78" s="4">
-        <v>96</v>
+        <v>102</v>
       </c>
       <c r="D78" s="4">
         <v>0</v>
@@ -3617,27 +3933,27 @@
         <v>0</v>
       </c>
       <c r="I78" s="4">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="J78" s="5">
-        <v>2870000</v>
+        <v>3050000</v>
       </c>
       <c r="K78" s="4">
         <v>300</v>
       </c>
       <c r="L78" s="4">
-        <v>0.017399999999999999</v>
-      </c>
-    </row>
-    <row r="79" ht="17.714" customHeight="true">
+        <v>2.4500000000000001E-2</v>
+      </c>
+    </row>
+    <row r="79" spans="1:12" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A79" s="3" t="s">
         <v>88</v>
       </c>
       <c r="B79" s="4">
-        <v>559</v>
+        <v>565</v>
       </c>
       <c r="C79" s="4">
-        <v>102</v>
+        <v>108</v>
       </c>
       <c r="D79" s="4">
         <v>0</v>
@@ -3655,27 +3971,27 @@
         <v>0</v>
       </c>
       <c r="I79" s="4">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="J79" s="5">
-        <v>3050000</v>
+        <v>3230000</v>
       </c>
       <c r="K79" s="4">
         <v>300</v>
       </c>
       <c r="L79" s="4">
-        <v>0.024500000000000001</v>
-      </c>
-    </row>
-    <row r="80" ht="17.714" customHeight="true">
+        <v>2.5600000000000001E-2</v>
+      </c>
+    </row>
+    <row r="80" spans="1:12" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A80" s="3" t="s">
         <v>89</v>
       </c>
       <c r="B80" s="4">
-        <v>565</v>
+        <v>571</v>
       </c>
       <c r="C80" s="4">
-        <v>108</v>
+        <v>114</v>
       </c>
       <c r="D80" s="4">
         <v>0</v>
@@ -3696,24 +4012,24 @@
         <v>347</v>
       </c>
       <c r="J80" s="5">
-        <v>3230000</v>
+        <v>3410000</v>
       </c>
       <c r="K80" s="4">
         <v>300</v>
       </c>
       <c r="L80" s="4">
-        <v>0.025600000000000001</v>
-      </c>
-    </row>
-    <row r="81" ht="17.714" customHeight="true">
+        <v>2.75E-2</v>
+      </c>
+    </row>
+    <row r="81" spans="1:12" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A81" s="3" t="s">
         <v>90</v>
       </c>
       <c r="B81" s="4">
-        <v>571</v>
+        <v>577</v>
       </c>
       <c r="C81" s="4">
-        <v>114</v>
+        <v>120</v>
       </c>
       <c r="D81" s="4">
         <v>0</v>
@@ -3731,27 +4047,27 @@
         <v>0</v>
       </c>
       <c r="I81" s="4">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="J81" s="5">
-        <v>3410000</v>
+        <v>3590000</v>
       </c>
       <c r="K81" s="4">
         <v>300</v>
       </c>
       <c r="L81" s="4">
-        <v>0.0275</v>
-      </c>
-    </row>
-    <row r="82" ht="17.714" customHeight="true">
+        <v>2.18E-2</v>
+      </c>
+    </row>
+    <row r="82" spans="1:12" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A82" s="3" t="s">
         <v>91</v>
       </c>
       <c r="B82" s="4">
-        <v>577</v>
+        <v>583</v>
       </c>
       <c r="C82" s="4">
-        <v>120</v>
+        <v>126</v>
       </c>
       <c r="D82" s="4">
         <v>0</v>
@@ -3772,24 +4088,24 @@
         <v>346</v>
       </c>
       <c r="J82" s="5">
-        <v>3590000</v>
+        <v>3770000</v>
       </c>
       <c r="K82" s="4">
         <v>300</v>
       </c>
       <c r="L82" s="4">
-        <v>0.0218</v>
-      </c>
-    </row>
-    <row r="83" ht="17.714" customHeight="true">
+        <v>1.32E-2</v>
+      </c>
+    </row>
+    <row r="83" spans="1:12" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A83" s="3" t="s">
         <v>92</v>
       </c>
       <c r="B83" s="4">
-        <v>583</v>
+        <v>589</v>
       </c>
       <c r="C83" s="4">
-        <v>126</v>
+        <v>132</v>
       </c>
       <c r="D83" s="4">
         <v>0</v>
@@ -3807,27 +4123,27 @@
         <v>0</v>
       </c>
       <c r="I83" s="4">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="J83" s="5">
-        <v>3770000</v>
+        <v>3950000</v>
       </c>
       <c r="K83" s="4">
         <v>300</v>
       </c>
       <c r="L83" s="4">
-        <v>0.0132</v>
-      </c>
-    </row>
-    <row r="84" ht="17.714" customHeight="true">
+        <v>1.83E-2</v>
+      </c>
+    </row>
+    <row r="84" spans="1:12" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A84" s="3" t="s">
         <v>93</v>
       </c>
       <c r="B84" s="4">
-        <v>589</v>
+        <v>595</v>
       </c>
       <c r="C84" s="4">
-        <v>132</v>
+        <v>138</v>
       </c>
       <c r="D84" s="4">
         <v>0</v>
@@ -3848,24 +4164,24 @@
         <v>345</v>
       </c>
       <c r="J84" s="5">
-        <v>3950000</v>
+        <v>4130000</v>
       </c>
       <c r="K84" s="4">
         <v>300</v>
       </c>
       <c r="L84" s="4">
-        <v>0.0183</v>
-      </c>
-    </row>
-    <row r="85" ht="17.714" customHeight="true">
+        <v>2.1100000000000001E-2</v>
+      </c>
+    </row>
+    <row r="85" spans="1:12" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A85" s="3" t="s">
         <v>94</v>
       </c>
       <c r="B85" s="4">
-        <v>595</v>
+        <v>601</v>
       </c>
       <c r="C85" s="4">
-        <v>138</v>
+        <v>144</v>
       </c>
       <c r="D85" s="4">
         <v>0</v>
@@ -3886,24 +4202,24 @@
         <v>345</v>
       </c>
       <c r="J85" s="5">
-        <v>4130000</v>
+        <v>4310000</v>
       </c>
       <c r="K85" s="4">
         <v>300</v>
       </c>
       <c r="L85" s="4">
-        <v>0.021100000000000001</v>
-      </c>
-    </row>
-    <row r="86" ht="17.714" customHeight="true">
+        <v>1.6799999999999999E-2</v>
+      </c>
+    </row>
+    <row r="86" spans="1:12" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A86" s="3" t="s">
         <v>95</v>
       </c>
       <c r="B86" s="4">
-        <v>601</v>
+        <v>607</v>
       </c>
       <c r="C86" s="4">
-        <v>144</v>
+        <v>150</v>
       </c>
       <c r="D86" s="4">
         <v>0</v>
@@ -3921,27 +4237,27 @@
         <v>0</v>
       </c>
       <c r="I86" s="4">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="J86" s="5">
-        <v>4310000</v>
+        <v>4490000</v>
       </c>
       <c r="K86" s="4">
         <v>300</v>
       </c>
       <c r="L86" s="4">
-        <v>0.016799999999999999</v>
-      </c>
-    </row>
-    <row r="87" ht="17.714" customHeight="true">
+        <v>1.5299999999999999E-2</v>
+      </c>
+    </row>
+    <row r="87" spans="1:12" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A87" s="3" t="s">
         <v>96</v>
       </c>
       <c r="B87" s="4">
-        <v>607</v>
+        <v>613</v>
       </c>
       <c r="C87" s="4">
-        <v>150</v>
+        <v>156</v>
       </c>
       <c r="D87" s="4">
         <v>0</v>
@@ -3959,27 +4275,27 @@
         <v>0</v>
       </c>
       <c r="I87" s="4">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="J87" s="5">
-        <v>4490000</v>
+        <v>4670000</v>
       </c>
       <c r="K87" s="4">
         <v>300</v>
       </c>
       <c r="L87" s="4">
-        <v>0.015299999999999999</v>
-      </c>
-    </row>
-    <row r="88" ht="17.714" customHeight="true">
+        <v>5.0499999999999998E-3</v>
+      </c>
+    </row>
+    <row r="88" spans="1:12" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A88" s="3" t="s">
         <v>97</v>
       </c>
       <c r="B88" s="4">
-        <v>613</v>
+        <v>619</v>
       </c>
       <c r="C88" s="4">
-        <v>156</v>
+        <v>162</v>
       </c>
       <c r="D88" s="4">
         <v>0</v>
@@ -4000,24 +4316,24 @@
         <v>343</v>
       </c>
       <c r="J88" s="5">
-        <v>4670000</v>
+        <v>4850000</v>
       </c>
       <c r="K88" s="4">
         <v>300</v>
       </c>
       <c r="L88" s="4">
-        <v>0.0050499999999999998</v>
-      </c>
-    </row>
-    <row r="89" ht="17.714" customHeight="true">
+        <v>6.77E-3</v>
+      </c>
+    </row>
+    <row r="89" spans="1:12" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A89" s="3" t="s">
         <v>98</v>
       </c>
       <c r="B89" s="4">
-        <v>619</v>
+        <v>625</v>
       </c>
       <c r="C89" s="4">
-        <v>162</v>
+        <v>168</v>
       </c>
       <c r="D89" s="4">
         <v>0</v>
@@ -4035,27 +4351,27 @@
         <v>0</v>
       </c>
       <c r="I89" s="4">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="J89" s="5">
-        <v>4850000</v>
+        <v>5030000</v>
       </c>
       <c r="K89" s="4">
         <v>300</v>
       </c>
       <c r="L89" s="4">
-        <v>0.00677</v>
-      </c>
-    </row>
-    <row r="90" ht="17.714" customHeight="true">
+        <v>1.3299999999999999E-2</v>
+      </c>
+    </row>
+    <row r="90" spans="1:12" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A90" s="3" t="s">
         <v>99</v>
       </c>
       <c r="B90" s="4">
-        <v>625</v>
+        <v>631</v>
       </c>
       <c r="C90" s="4">
-        <v>168</v>
+        <v>174</v>
       </c>
       <c r="D90" s="4">
         <v>0</v>
@@ -4073,27 +4389,27 @@
         <v>0</v>
       </c>
       <c r="I90" s="4">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="J90" s="5">
-        <v>5030000</v>
+        <v>5210000</v>
       </c>
       <c r="K90" s="4">
         <v>300</v>
       </c>
       <c r="L90" s="4">
-        <v>0.013299999999999999</v>
-      </c>
-    </row>
-    <row r="91" ht="17.714" customHeight="true">
+        <v>1.11E-2</v>
+      </c>
+    </row>
+    <row r="91" spans="1:12" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A91" s="3" t="s">
         <v>100</v>
       </c>
       <c r="B91" s="4">
-        <v>631</v>
+        <v>637</v>
       </c>
       <c r="C91" s="4">
-        <v>174</v>
+        <v>180</v>
       </c>
       <c r="D91" s="4">
         <v>0</v>
@@ -4114,24 +4430,24 @@
         <v>341</v>
       </c>
       <c r="J91" s="5">
-        <v>5210000</v>
+        <v>5390000</v>
       </c>
       <c r="K91" s="4">
         <v>300</v>
       </c>
       <c r="L91" s="4">
-        <v>0.0111</v>
-      </c>
-    </row>
-    <row r="92" ht="17.714" customHeight="true">
+        <v>1.0800000000000001E-2</v>
+      </c>
+    </row>
+    <row r="92" spans="1:12" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A92" s="3" t="s">
         <v>101</v>
       </c>
       <c r="B92" s="4">
-        <v>637</v>
+        <v>643</v>
       </c>
       <c r="C92" s="4">
-        <v>180</v>
+        <v>186</v>
       </c>
       <c r="D92" s="4">
         <v>0</v>
@@ -4149,27 +4465,27 @@
         <v>0</v>
       </c>
       <c r="I92" s="4">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="J92" s="5">
-        <v>5390000</v>
+        <v>5570000</v>
       </c>
       <c r="K92" s="4">
         <v>300</v>
       </c>
       <c r="L92" s="4">
-        <v>0.010800000000000001</v>
-      </c>
-    </row>
-    <row r="93" ht="17.714" customHeight="true">
+        <v>1.46E-2</v>
+      </c>
+    </row>
+    <row r="93" spans="1:12" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A93" s="3" t="s">
         <v>102</v>
       </c>
       <c r="B93" s="4">
-        <v>643</v>
+        <v>649</v>
       </c>
       <c r="C93" s="4">
-        <v>186</v>
+        <v>192</v>
       </c>
       <c r="D93" s="4">
         <v>0</v>
@@ -4190,24 +4506,24 @@
         <v>340</v>
       </c>
       <c r="J93" s="5">
-        <v>5570000</v>
+        <v>5750000</v>
       </c>
       <c r="K93" s="4">
         <v>300</v>
       </c>
       <c r="L93" s="4">
-        <v>0.0146</v>
-      </c>
-    </row>
-    <row r="94" ht="17.714" customHeight="true">
+        <v>1.15E-2</v>
+      </c>
+    </row>
+    <row r="94" spans="1:12" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A94" s="3" t="s">
         <v>103</v>
       </c>
       <c r="B94" s="4">
-        <v>649</v>
+        <v>655</v>
       </c>
       <c r="C94" s="4">
-        <v>192</v>
+        <v>198</v>
       </c>
       <c r="D94" s="4">
         <v>0</v>
@@ -4225,27 +4541,27 @@
         <v>0</v>
       </c>
       <c r="I94" s="4">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="J94" s="5">
-        <v>5750000</v>
+        <v>5930000</v>
       </c>
       <c r="K94" s="4">
         <v>300</v>
       </c>
       <c r="L94" s="4">
-        <v>0.0115</v>
-      </c>
-    </row>
-    <row r="95" ht="17.714" customHeight="true">
+        <v>8.1899999999999994E-3</v>
+      </c>
+    </row>
+    <row r="95" spans="1:12" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A95" s="3" t="s">
         <v>104</v>
       </c>
       <c r="B95" s="4">
-        <v>655</v>
+        <v>661</v>
       </c>
       <c r="C95" s="4">
-        <v>198</v>
+        <v>204</v>
       </c>
       <c r="D95" s="4">
         <v>0</v>
@@ -4263,27 +4579,27 @@
         <v>0</v>
       </c>
       <c r="I95" s="4">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="J95" s="5">
-        <v>5930000</v>
+        <v>6110000</v>
       </c>
       <c r="K95" s="4">
         <v>300</v>
       </c>
       <c r="L95" s="4">
-        <v>0.0081899999999999994</v>
-      </c>
-    </row>
-    <row r="96" ht="17.714" customHeight="true">
+        <v>6.9499999999999996E-3</v>
+      </c>
+    </row>
+    <row r="96" spans="1:12" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A96" s="3" t="s">
         <v>105</v>
       </c>
       <c r="B96" s="4">
-        <v>661</v>
+        <v>667</v>
       </c>
       <c r="C96" s="4">
-        <v>204</v>
+        <v>210</v>
       </c>
       <c r="D96" s="4">
         <v>0</v>
@@ -4304,24 +4620,24 @@
         <v>338</v>
       </c>
       <c r="J96" s="5">
-        <v>6110000</v>
+        <v>6290000</v>
       </c>
       <c r="K96" s="4">
         <v>300</v>
       </c>
       <c r="L96" s="4">
-        <v>0.0069499999999999996</v>
-      </c>
-    </row>
-    <row r="97" ht="17.714" customHeight="true">
+        <v>1.0200000000000001E-2</v>
+      </c>
+    </row>
+    <row r="97" spans="1:12" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A97" s="3" t="s">
         <v>106</v>
       </c>
       <c r="B97" s="4">
-        <v>667</v>
+        <v>673</v>
       </c>
       <c r="C97" s="4">
-        <v>210</v>
+        <v>216</v>
       </c>
       <c r="D97" s="4">
         <v>0</v>
@@ -4342,24 +4658,24 @@
         <v>338</v>
       </c>
       <c r="J97" s="5">
-        <v>6290000</v>
+        <v>6470000</v>
       </c>
       <c r="K97" s="4">
         <v>300</v>
       </c>
       <c r="L97" s="4">
-        <v>0.010200000000000001</v>
-      </c>
-    </row>
-    <row r="98" ht="17.714" customHeight="true">
+        <v>9.4500000000000001E-3</v>
+      </c>
+    </row>
+    <row r="98" spans="1:12" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A98" s="3" t="s">
         <v>107</v>
       </c>
       <c r="B98" s="4">
-        <v>673</v>
+        <v>679</v>
       </c>
       <c r="C98" s="4">
-        <v>216</v>
+        <v>222</v>
       </c>
       <c r="D98" s="4">
         <v>0</v>
@@ -4377,27 +4693,27 @@
         <v>0</v>
       </c>
       <c r="I98" s="4">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="J98" s="5">
-        <v>6470000</v>
+        <v>6650000</v>
       </c>
       <c r="K98" s="4">
         <v>300</v>
       </c>
       <c r="L98" s="4">
-        <v>0.0094500000000000001</v>
-      </c>
-    </row>
-    <row r="99" ht="17.714" customHeight="true">
+        <v>8.1899999999999994E-3</v>
+      </c>
+    </row>
+    <row r="99" spans="1:12" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A99" s="3" t="s">
         <v>108</v>
       </c>
       <c r="B99" s="4">
-        <v>679</v>
+        <v>685</v>
       </c>
       <c r="C99" s="4">
-        <v>222</v>
+        <v>228</v>
       </c>
       <c r="D99" s="4">
         <v>0</v>
@@ -4418,24 +4734,24 @@
         <v>337</v>
       </c>
       <c r="J99" s="5">
-        <v>6650000</v>
+        <v>6830000</v>
       </c>
       <c r="K99" s="4">
         <v>300</v>
       </c>
       <c r="L99" s="4">
-        <v>0.0081899999999999994</v>
-      </c>
-    </row>
-    <row r="100" ht="17.714" customHeight="true">
+        <v>5.8700000000000002E-3</v>
+      </c>
+    </row>
+    <row r="100" spans="1:12" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A100" s="3" t="s">
         <v>109</v>
       </c>
       <c r="B100" s="4">
-        <v>685</v>
+        <v>691</v>
       </c>
       <c r="C100" s="4">
-        <v>228</v>
+        <v>234</v>
       </c>
       <c r="D100" s="4">
         <v>0</v>
@@ -4456,24 +4772,24 @@
         <v>337</v>
       </c>
       <c r="J100" s="5">
-        <v>6830000</v>
+        <v>7010000</v>
       </c>
       <c r="K100" s="4">
         <v>300</v>
       </c>
       <c r="L100" s="4">
-        <v>0.0058700000000000002</v>
-      </c>
-    </row>
-    <row r="101" ht="17.714" customHeight="true">
+        <v>5.7600000000000004E-3</v>
+      </c>
+    </row>
+    <row r="101" spans="1:12" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A101" s="3" t="s">
         <v>110</v>
       </c>
       <c r="B101" s="4">
-        <v>691</v>
+        <v>697</v>
       </c>
       <c r="C101" s="4">
-        <v>234</v>
+        <v>240</v>
       </c>
       <c r="D101" s="4">
         <v>0</v>
@@ -4491,27 +4807,27 @@
         <v>0</v>
       </c>
       <c r="I101" s="4">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="J101" s="5">
-        <v>7010000</v>
+        <v>7190000</v>
       </c>
       <c r="K101" s="4">
         <v>300</v>
       </c>
       <c r="L101" s="4">
-        <v>0.0057600000000000004</v>
-      </c>
-    </row>
-    <row r="102" ht="17.714" customHeight="true">
+        <v>8.3700000000000007E-3</v>
+      </c>
+    </row>
+    <row r="102" spans="1:12" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A102" s="3" t="s">
         <v>111</v>
       </c>
       <c r="B102" s="4">
-        <v>697</v>
+        <v>703</v>
       </c>
       <c r="C102" s="4">
-        <v>240</v>
+        <v>246</v>
       </c>
       <c r="D102" s="4">
         <v>0</v>
@@ -4532,24 +4848,24 @@
         <v>336</v>
       </c>
       <c r="J102" s="5">
-        <v>7190000</v>
+        <v>7370000</v>
       </c>
       <c r="K102" s="4">
         <v>300</v>
       </c>
       <c r="L102" s="4">
-        <v>0.0083700000000000007</v>
-      </c>
-    </row>
-    <row r="103" ht="17.714" customHeight="true">
+        <v>2.3400000000000001E-3</v>
+      </c>
+    </row>
+    <row r="103" spans="1:12" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A103" s="3" t="s">
         <v>112</v>
       </c>
       <c r="B103" s="4">
-        <v>703</v>
+        <v>709</v>
       </c>
       <c r="C103" s="4">
-        <v>246</v>
+        <v>252</v>
       </c>
       <c r="D103" s="4">
         <v>0</v>
@@ -4567,27 +4883,27 @@
         <v>0</v>
       </c>
       <c r="I103" s="4">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="J103" s="5">
-        <v>7370000</v>
+        <v>7550000</v>
       </c>
       <c r="K103" s="4">
         <v>300</v>
       </c>
       <c r="L103" s="4">
-        <v>0.0023400000000000001</v>
-      </c>
-    </row>
-    <row r="104" ht="17.714" customHeight="true">
+        <v>5.4000000000000003E-3</v>
+      </c>
+    </row>
+    <row r="104" spans="1:12" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A104" s="3" t="s">
         <v>113</v>
       </c>
       <c r="B104" s="4">
-        <v>709</v>
+        <v>715</v>
       </c>
       <c r="C104" s="4">
-        <v>252</v>
+        <v>258</v>
       </c>
       <c r="D104" s="4">
         <v>0</v>
@@ -4605,27 +4921,27 @@
         <v>0</v>
       </c>
       <c r="I104" s="4">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="J104" s="5">
-        <v>7550000</v>
+        <v>7740000</v>
       </c>
       <c r="K104" s="4">
         <v>300</v>
       </c>
       <c r="L104" s="4">
-        <v>0.0054000000000000003</v>
-      </c>
-    </row>
-    <row r="105" ht="17.714" customHeight="true">
+        <v>3.2200000000000002E-3</v>
+      </c>
+    </row>
+    <row r="105" spans="1:12" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A105" s="3" t="s">
         <v>114</v>
       </c>
       <c r="B105" s="4">
-        <v>715</v>
+        <v>721</v>
       </c>
       <c r="C105" s="4">
-        <v>258</v>
+        <v>264</v>
       </c>
       <c r="D105" s="4">
         <v>0</v>
@@ -4646,24 +4962,24 @@
         <v>334</v>
       </c>
       <c r="J105" s="5">
-        <v>7740000</v>
+        <v>7920000</v>
       </c>
       <c r="K105" s="4">
         <v>300</v>
       </c>
       <c r="L105" s="4">
-        <v>0.0032200000000000002</v>
-      </c>
-    </row>
-    <row r="106" ht="17.714" customHeight="true">
+        <v>-2.81E-3</v>
+      </c>
+    </row>
+    <row r="106" spans="1:12" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A106" s="3" t="s">
         <v>115</v>
       </c>
       <c r="B106" s="4">
-        <v>721</v>
+        <v>727</v>
       </c>
       <c r="C106" s="4">
-        <v>264</v>
+        <v>270</v>
       </c>
       <c r="D106" s="4">
         <v>0</v>
@@ -4684,24 +5000,24 @@
         <v>334</v>
       </c>
       <c r="J106" s="5">
-        <v>7920000</v>
+        <v>8100000</v>
       </c>
       <c r="K106" s="4">
         <v>300</v>
       </c>
       <c r="L106" s="4">
-        <v>-0.00281</v>
-      </c>
-    </row>
-    <row r="107" ht="17.714" customHeight="true">
+        <v>-1.1999999999999999E-3</v>
+      </c>
+    </row>
+    <row r="107" spans="1:12" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A107" s="3" t="s">
         <v>116</v>
       </c>
       <c r="B107" s="4">
-        <v>727</v>
+        <v>733</v>
       </c>
       <c r="C107" s="4">
-        <v>270</v>
+        <v>276</v>
       </c>
       <c r="D107" s="4">
         <v>0</v>
@@ -4719,27 +5035,27 @@
         <v>0</v>
       </c>
       <c r="I107" s="4">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="J107" s="5">
-        <v>8100000</v>
+        <v>8280000</v>
       </c>
       <c r="K107" s="4">
         <v>300</v>
       </c>
       <c r="L107" s="4">
-        <v>-0.0011999999999999999</v>
-      </c>
-    </row>
-    <row r="108" ht="17.714" customHeight="true">
+        <v>-9.3299999999999998E-3</v>
+      </c>
+    </row>
+    <row r="108" spans="1:12" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A108" s="3" t="s">
         <v>117</v>
       </c>
       <c r="B108" s="4">
-        <v>733</v>
+        <v>739</v>
       </c>
       <c r="C108" s="4">
-        <v>276</v>
+        <v>282</v>
       </c>
       <c r="D108" s="4">
         <v>0</v>
@@ -4757,27 +5073,27 @@
         <v>0</v>
       </c>
       <c r="I108" s="4">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="J108" s="5">
-        <v>8280000</v>
+        <v>8460000</v>
       </c>
       <c r="K108" s="4">
         <v>300</v>
       </c>
       <c r="L108" s="4">
-        <v>-0.0093299999999999998</v>
-      </c>
-    </row>
-    <row r="109" ht="17.714" customHeight="true">
+        <v>-1.23E-2</v>
+      </c>
+    </row>
+    <row r="109" spans="1:12" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A109" s="3" t="s">
         <v>118</v>
       </c>
       <c r="B109" s="4">
-        <v>739</v>
+        <v>745</v>
       </c>
       <c r="C109" s="4">
-        <v>282</v>
+        <v>288</v>
       </c>
       <c r="D109" s="4">
         <v>0</v>
@@ -4798,24 +5114,24 @@
         <v>332</v>
       </c>
       <c r="J109" s="5">
-        <v>8460000</v>
+        <v>8640000</v>
       </c>
       <c r="K109" s="4">
         <v>300</v>
       </c>
       <c r="L109" s="4">
-        <v>-0.0123</v>
-      </c>
-    </row>
-    <row r="110" ht="17.714" customHeight="true">
+        <v>-4.1799999999999997E-3</v>
+      </c>
+    </row>
+    <row r="110" spans="1:12" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A110" s="3" t="s">
         <v>119</v>
       </c>
       <c r="B110" s="4">
-        <v>745</v>
+        <v>751</v>
       </c>
       <c r="C110" s="4">
-        <v>288</v>
+        <v>294</v>
       </c>
       <c r="D110" s="4">
         <v>0</v>
@@ -4833,27 +5149,27 @@
         <v>0</v>
       </c>
       <c r="I110" s="4">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="J110" s="5">
-        <v>8640000</v>
+        <v>8820000</v>
       </c>
       <c r="K110" s="4">
         <v>300</v>
       </c>
       <c r="L110" s="4">
-        <v>-0.0041799999999999997</v>
-      </c>
-    </row>
-    <row r="111" ht="17.714" customHeight="true">
+        <v>-1.08E-3</v>
+      </c>
+    </row>
+    <row r="111" spans="1:12" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A111" s="3" t="s">
         <v>120</v>
       </c>
       <c r="B111" s="4">
-        <v>751</v>
+        <v>757</v>
       </c>
       <c r="C111" s="4">
-        <v>294</v>
+        <v>300</v>
       </c>
       <c r="D111" s="4">
         <v>0</v>
@@ -4874,24 +5190,24 @@
         <v>331</v>
       </c>
       <c r="J111" s="5">
-        <v>8820000</v>
+        <v>9000000</v>
       </c>
       <c r="K111" s="4">
         <v>300</v>
       </c>
       <c r="L111" s="4">
-        <v>-0.00108</v>
-      </c>
-    </row>
-    <row r="112" ht="17.714" customHeight="true">
+        <v>-3.2399999999999998E-3</v>
+      </c>
+    </row>
+    <row r="112" spans="1:12" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A112" s="3" t="s">
         <v>121</v>
       </c>
       <c r="B112" s="4">
-        <v>757</v>
+        <v>763</v>
       </c>
       <c r="C112" s="4">
-        <v>300</v>
+        <v>306</v>
       </c>
       <c r="D112" s="4">
         <v>0</v>
@@ -4909,27 +5225,27 @@
         <v>0</v>
       </c>
       <c r="I112" s="4">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="J112" s="5">
-        <v>9000000</v>
+        <v>9180000</v>
       </c>
       <c r="K112" s="4">
         <v>300</v>
       </c>
       <c r="L112" s="4">
-        <v>-0.0032399999999999998</v>
-      </c>
-    </row>
-    <row r="113" ht="17.714" customHeight="true">
+        <v>2.0200000000000001E-3</v>
+      </c>
+    </row>
+    <row r="113" spans="1:12" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A113" s="3" t="s">
         <v>122</v>
       </c>
       <c r="B113" s="4">
-        <v>763</v>
+        <v>769</v>
       </c>
       <c r="C113" s="4">
-        <v>306</v>
+        <v>312</v>
       </c>
       <c r="D113" s="4">
         <v>0</v>
@@ -4950,24 +5266,24 @@
         <v>330</v>
       </c>
       <c r="J113" s="5">
-        <v>9180000</v>
+        <v>9360000</v>
       </c>
       <c r="K113" s="4">
         <v>300</v>
       </c>
       <c r="L113" s="4">
-        <v>0.0020200000000000001</v>
-      </c>
-    </row>
-    <row r="114" ht="17.714" customHeight="true">
+        <v>-9.5099999999999994E-3</v>
+      </c>
+    </row>
+    <row r="114" spans="1:12" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A114" s="3" t="s">
         <v>123</v>
       </c>
       <c r="B114" s="4">
-        <v>769</v>
+        <v>775</v>
       </c>
       <c r="C114" s="4">
-        <v>312</v>
+        <v>318</v>
       </c>
       <c r="D114" s="4">
         <v>0</v>
@@ -4985,27 +5301,27 @@
         <v>0</v>
       </c>
       <c r="I114" s="4">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="J114" s="5">
-        <v>9360000</v>
+        <v>9540000</v>
       </c>
       <c r="K114" s="4">
         <v>300</v>
       </c>
       <c r="L114" s="4">
-        <v>-0.0095099999999999994</v>
-      </c>
-    </row>
-    <row r="115" ht="17.714" customHeight="true">
+        <v>-1.35E-2</v>
+      </c>
+    </row>
+    <row r="115" spans="1:12" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A115" s="3" t="s">
         <v>124</v>
       </c>
       <c r="B115" s="4">
-        <v>775</v>
+        <v>781</v>
       </c>
       <c r="C115" s="4">
-        <v>318</v>
+        <v>324</v>
       </c>
       <c r="D115" s="4">
         <v>0</v>
@@ -5026,24 +5342,24 @@
         <v>329</v>
       </c>
       <c r="J115" s="5">
-        <v>9540000</v>
+        <v>9720000</v>
       </c>
       <c r="K115" s="4">
         <v>300</v>
       </c>
       <c r="L115" s="4">
-        <v>-0.0135</v>
-      </c>
-    </row>
-    <row r="116" ht="17.714" customHeight="true">
+        <v>-1.23E-2</v>
+      </c>
+    </row>
+    <row r="116" spans="1:12" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A116" s="3" t="s">
         <v>125</v>
       </c>
       <c r="B116" s="4">
-        <v>781</v>
+        <v>787</v>
       </c>
       <c r="C116" s="4">
-        <v>324</v>
+        <v>330</v>
       </c>
       <c r="D116" s="4">
         <v>0</v>
@@ -5061,27 +5377,27 @@
         <v>0</v>
       </c>
       <c r="I116" s="4">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="J116" s="5">
-        <v>9720000</v>
+        <v>9900000</v>
       </c>
       <c r="K116" s="4">
         <v>300</v>
       </c>
       <c r="L116" s="4">
-        <v>-0.0123</v>
-      </c>
-    </row>
-    <row r="117" ht="17.714" customHeight="true">
+        <v>-7.6800000000000002E-3</v>
+      </c>
+    </row>
+    <row r="117" spans="1:12" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A117" s="3" t="s">
         <v>126</v>
       </c>
       <c r="B117" s="4">
-        <v>787</v>
+        <v>793</v>
       </c>
       <c r="C117" s="4">
-        <v>330</v>
+        <v>336</v>
       </c>
       <c r="D117" s="4">
         <v>0</v>
@@ -5102,24 +5418,24 @@
         <v>328</v>
       </c>
       <c r="J117" s="5">
-        <v>9900000</v>
+        <v>10100000</v>
       </c>
       <c r="K117" s="4">
         <v>300</v>
       </c>
       <c r="L117" s="4">
-        <v>-0.0076800000000000002</v>
-      </c>
-    </row>
-    <row r="118" ht="17.714" customHeight="true">
+        <v>-8.09E-3</v>
+      </c>
+    </row>
+    <row r="118" spans="1:12" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A118" s="3" t="s">
         <v>127</v>
       </c>
       <c r="B118" s="4">
-        <v>793</v>
+        <v>799</v>
       </c>
       <c r="C118" s="4">
-        <v>336</v>
+        <v>342</v>
       </c>
       <c r="D118" s="4">
         <v>0</v>
@@ -5140,24 +5456,24 @@
         <v>328</v>
       </c>
       <c r="J118" s="5">
-        <v>10100000</v>
+        <v>10300000</v>
       </c>
       <c r="K118" s="4">
         <v>300</v>
       </c>
       <c r="L118" s="4">
-        <v>-0.00809</v>
-      </c>
-    </row>
-    <row r="119" ht="17.714" customHeight="true">
+        <v>-7.2899999999999996E-3</v>
+      </c>
+    </row>
+    <row r="119" spans="1:12" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A119" s="3" t="s">
         <v>128</v>
       </c>
       <c r="B119" s="4">
-        <v>799</v>
+        <v>805</v>
       </c>
       <c r="C119" s="4">
-        <v>342</v>
+        <v>348</v>
       </c>
       <c r="D119" s="4">
         <v>0</v>
@@ -5175,27 +5491,27 @@
         <v>0</v>
       </c>
       <c r="I119" s="4">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="J119" s="5">
-        <v>10300000</v>
+        <v>10400000</v>
       </c>
       <c r="K119" s="4">
         <v>300</v>
       </c>
       <c r="L119" s="4">
-        <v>-0.0072899999999999996</v>
-      </c>
-    </row>
-    <row r="120" ht="17.714" customHeight="true">
+        <v>-2.1900000000000001E-3</v>
+      </c>
+    </row>
+    <row r="120" spans="1:12" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A120" s="3" t="s">
         <v>129</v>
       </c>
       <c r="B120" s="4">
-        <v>805</v>
+        <v>811</v>
       </c>
       <c r="C120" s="4">
-        <v>348</v>
+        <v>354</v>
       </c>
       <c r="D120" s="4">
         <v>0</v>
@@ -5213,27 +5529,27 @@
         <v>0</v>
       </c>
       <c r="I120" s="4">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="J120" s="5">
-        <v>10400000</v>
+        <v>10600000</v>
       </c>
       <c r="K120" s="4">
         <v>300</v>
       </c>
       <c r="L120" s="4">
-        <v>-0.0021900000000000001</v>
-      </c>
-    </row>
-    <row r="121" ht="17.714" customHeight="true">
+        <v>-2.0799999999999999E-4</v>
+      </c>
+    </row>
+    <row r="121" spans="1:12" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A121" s="3" t="s">
         <v>130</v>
       </c>
       <c r="B121" s="4">
-        <v>811</v>
+        <v>817</v>
       </c>
       <c r="C121" s="4">
-        <v>354</v>
+        <v>360</v>
       </c>
       <c r="D121" s="4">
         <v>0</v>
@@ -5254,24 +5570,24 @@
         <v>326</v>
       </c>
       <c r="J121" s="5">
-        <v>10600000</v>
+        <v>10800000</v>
       </c>
       <c r="K121" s="4">
         <v>300</v>
       </c>
       <c r="L121" s="4">
-        <v>-0.00020799999999999999</v>
-      </c>
-    </row>
-    <row r="122" ht="17.714" customHeight="true">
+        <v>1.2800000000000001E-3</v>
+      </c>
+    </row>
+    <row r="122" spans="1:12" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A122" s="3" t="s">
         <v>131</v>
       </c>
       <c r="B122" s="4">
-        <v>817</v>
+        <v>823</v>
       </c>
       <c r="C122" s="4">
-        <v>360</v>
+        <v>366</v>
       </c>
       <c r="D122" s="4">
         <v>0</v>
@@ -5292,24 +5608,24 @@
         <v>326</v>
       </c>
       <c r="J122" s="5">
-        <v>10800000</v>
+        <v>11000000</v>
       </c>
       <c r="K122" s="4">
         <v>300</v>
       </c>
       <c r="L122" s="4">
-        <v>0.0012800000000000001</v>
-      </c>
-    </row>
-    <row r="123" ht="17.714" customHeight="true">
+        <v>5.3299999999999997E-3</v>
+      </c>
+    </row>
+    <row r="123" spans="1:12" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A123" s="3" t="s">
         <v>132</v>
       </c>
       <c r="B123" s="4">
-        <v>823</v>
+        <v>829</v>
       </c>
       <c r="C123" s="4">
-        <v>366</v>
+        <v>372</v>
       </c>
       <c r="D123" s="4">
         <v>0</v>
@@ -5327,27 +5643,27 @@
         <v>0</v>
       </c>
       <c r="I123" s="4">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="J123" s="5">
-        <v>11000000</v>
+        <v>11200000</v>
       </c>
       <c r="K123" s="4">
         <v>300</v>
       </c>
       <c r="L123" s="4">
-        <v>0.0053299999999999997</v>
-      </c>
-    </row>
-    <row r="124" ht="17.714" customHeight="true">
+        <v>5.7000000000000002E-3</v>
+      </c>
+    </row>
+    <row r="124" spans="1:12" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A124" s="3" t="s">
         <v>133</v>
       </c>
       <c r="B124" s="4">
-        <v>829</v>
+        <v>835</v>
       </c>
       <c r="C124" s="4">
-        <v>372</v>
+        <v>378</v>
       </c>
       <c r="D124" s="4">
         <v>0</v>
@@ -5365,27 +5681,27 @@
         <v>0</v>
       </c>
       <c r="I124" s="4">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="J124" s="5">
-        <v>11200000</v>
+        <v>11300000</v>
       </c>
       <c r="K124" s="4">
         <v>300</v>
       </c>
       <c r="L124" s="4">
-        <v>0.0057000000000000002</v>
-      </c>
-    </row>
-    <row r="125" ht="17.714" customHeight="true">
+        <v>3.7499999999999999E-3</v>
+      </c>
+    </row>
+    <row r="125" spans="1:12" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A125" s="3" t="s">
         <v>134</v>
       </c>
       <c r="B125" s="4">
-        <v>835</v>
+        <v>841</v>
       </c>
       <c r="C125" s="4">
-        <v>378</v>
+        <v>384</v>
       </c>
       <c r="D125" s="4">
         <v>0</v>
@@ -5406,24 +5722,24 @@
         <v>324</v>
       </c>
       <c r="J125" s="5">
-        <v>11300000</v>
+        <v>11500000</v>
       </c>
       <c r="K125" s="4">
         <v>300</v>
       </c>
       <c r="L125" s="4">
-        <v>0.0037499999999999999</v>
-      </c>
-    </row>
-    <row r="126" ht="17.714" customHeight="true">
+        <v>-2.4199999999999998E-3</v>
+      </c>
+    </row>
+    <row r="126" spans="1:12" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A126" s="3" t="s">
         <v>135</v>
       </c>
       <c r="B126" s="4">
-        <v>841</v>
+        <v>847</v>
       </c>
       <c r="C126" s="4">
-        <v>384</v>
+        <v>390</v>
       </c>
       <c r="D126" s="4">
         <v>0</v>
@@ -5444,24 +5760,24 @@
         <v>324</v>
       </c>
       <c r="J126" s="5">
-        <v>11500000</v>
+        <v>11700000</v>
       </c>
       <c r="K126" s="4">
         <v>300</v>
       </c>
       <c r="L126" s="4">
-        <v>-0.0024199999999999998</v>
-      </c>
-    </row>
-    <row r="127" ht="17.714" customHeight="true">
+        <v>-1.2E-2</v>
+      </c>
+    </row>
+    <row r="127" spans="1:12" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A127" s="3" t="s">
         <v>136</v>
       </c>
       <c r="B127" s="4">
-        <v>847</v>
+        <v>853</v>
       </c>
       <c r="C127" s="4">
-        <v>390</v>
+        <v>396</v>
       </c>
       <c r="D127" s="4">
         <v>0</v>
@@ -5479,27 +5795,27 @@
         <v>0</v>
       </c>
       <c r="I127" s="4">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="J127" s="5">
-        <v>11700000</v>
+        <v>11900000</v>
       </c>
       <c r="K127" s="4">
         <v>300</v>
       </c>
       <c r="L127" s="4">
-        <v>-0.012</v>
-      </c>
-    </row>
-    <row r="128" ht="17.714" customHeight="true">
+        <v>-6.28E-3</v>
+      </c>
+    </row>
+    <row r="128" spans="1:12" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A128" s="3" t="s">
         <v>137</v>
       </c>
       <c r="B128" s="4">
-        <v>853</v>
+        <v>859</v>
       </c>
       <c r="C128" s="4">
-        <v>396</v>
+        <v>402</v>
       </c>
       <c r="D128" s="4">
         <v>0</v>
@@ -5520,24 +5836,24 @@
         <v>323</v>
       </c>
       <c r="J128" s="5">
-        <v>11900000</v>
+        <v>12100000</v>
       </c>
       <c r="K128" s="4">
         <v>300</v>
       </c>
       <c r="L128" s="4">
-        <v>-0.00628</v>
-      </c>
-    </row>
-    <row r="129" ht="17.714" customHeight="true">
+        <v>-1.2200000000000001E-2</v>
+      </c>
+    </row>
+    <row r="129" spans="1:12" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A129" s="3" t="s">
         <v>138</v>
       </c>
       <c r="B129" s="4">
-        <v>859</v>
+        <v>865</v>
       </c>
       <c r="C129" s="4">
-        <v>402</v>
+        <v>408</v>
       </c>
       <c r="D129" s="4">
         <v>0</v>
@@ -5558,24 +5874,24 @@
         <v>323</v>
       </c>
       <c r="J129" s="5">
-        <v>12100000</v>
+        <v>12200000</v>
       </c>
       <c r="K129" s="4">
         <v>300</v>
       </c>
       <c r="L129" s="4">
-        <v>-0.012200000000000001</v>
-      </c>
-    </row>
-    <row r="130" ht="17.714" customHeight="true">
+        <v>-1.6199999999999999E-2</v>
+      </c>
+    </row>
+    <row r="130" spans="1:12" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A130" s="3" t="s">
         <v>139</v>
       </c>
       <c r="B130" s="4">
-        <v>865</v>
+        <v>871</v>
       </c>
       <c r="C130" s="4">
-        <v>408</v>
+        <v>414</v>
       </c>
       <c r="D130" s="4">
         <v>0</v>
@@ -5596,24 +5912,24 @@
         <v>323</v>
       </c>
       <c r="J130" s="5">
-        <v>12200000</v>
+        <v>12400000</v>
       </c>
       <c r="K130" s="4">
         <v>300</v>
       </c>
       <c r="L130" s="4">
-        <v>-0.016199999999999999</v>
-      </c>
-    </row>
-    <row r="131" ht="17.714" customHeight="true">
+        <v>-1.46E-2</v>
+      </c>
+    </row>
+    <row r="131" spans="1:12" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A131" s="3" t="s">
         <v>140</v>
       </c>
       <c r="B131" s="4">
-        <v>871</v>
+        <v>877</v>
       </c>
       <c r="C131" s="4">
-        <v>414</v>
+        <v>420</v>
       </c>
       <c r="D131" s="4">
         <v>0</v>
@@ -5631,27 +5947,27 @@
         <v>0</v>
       </c>
       <c r="I131" s="4">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="J131" s="5">
-        <v>12400000</v>
+        <v>12600000</v>
       </c>
       <c r="K131" s="4">
         <v>300</v>
       </c>
       <c r="L131" s="4">
-        <v>-0.0146</v>
-      </c>
-    </row>
-    <row r="132" ht="17.714" customHeight="true">
+        <v>-1.6E-2</v>
+      </c>
+    </row>
+    <row r="132" spans="1:12" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A132" s="3" t="s">
         <v>141</v>
       </c>
       <c r="B132" s="4">
-        <v>877</v>
+        <v>883</v>
       </c>
       <c r="C132" s="4">
-        <v>420</v>
+        <v>426</v>
       </c>
       <c r="D132" s="4">
         <v>0</v>
@@ -5672,24 +5988,24 @@
         <v>322</v>
       </c>
       <c r="J132" s="5">
-        <v>12600000</v>
+        <v>12800000</v>
       </c>
       <c r="K132" s="4">
         <v>300</v>
       </c>
       <c r="L132" s="4">
-        <v>-0.016</v>
-      </c>
-    </row>
-    <row r="133" ht="17.714" customHeight="true">
+        <v>-1.67E-2</v>
+      </c>
+    </row>
+    <row r="133" spans="1:12" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A133" s="3" t="s">
         <v>142</v>
       </c>
       <c r="B133" s="4">
-        <v>883</v>
+        <v>889</v>
       </c>
       <c r="C133" s="4">
-        <v>426</v>
+        <v>432</v>
       </c>
       <c r="D133" s="4">
         <v>0</v>
@@ -5707,27 +6023,27 @@
         <v>0</v>
       </c>
       <c r="I133" s="4">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="J133" s="5">
-        <v>12800000</v>
+        <v>13000000</v>
       </c>
       <c r="K133" s="4">
         <v>300</v>
       </c>
       <c r="L133" s="4">
-        <v>-0.0167</v>
-      </c>
-    </row>
-    <row r="134" ht="17.714" customHeight="true">
+        <v>-2.3199999999999998E-2</v>
+      </c>
+    </row>
+    <row r="134" spans="1:12" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A134" s="3" t="s">
         <v>143</v>
       </c>
       <c r="B134" s="4">
-        <v>889</v>
+        <v>895</v>
       </c>
       <c r="C134" s="4">
-        <v>432</v>
+        <v>438</v>
       </c>
       <c r="D134" s="4">
         <v>0</v>
@@ -5748,24 +6064,24 @@
         <v>321</v>
       </c>
       <c r="J134" s="5">
-        <v>13000000</v>
+        <v>13100000</v>
       </c>
       <c r="K134" s="4">
         <v>300</v>
       </c>
       <c r="L134" s="4">
-        <v>-0.023199999999999998</v>
-      </c>
-    </row>
-    <row r="135" ht="17.714" customHeight="true">
+        <v>-1.6199999999999999E-2</v>
+      </c>
+    </row>
+    <row r="135" spans="1:12" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A135" s="3" t="s">
         <v>144</v>
       </c>
       <c r="B135" s="4">
-        <v>895</v>
+        <v>901</v>
       </c>
       <c r="C135" s="4">
-        <v>438</v>
+        <v>444</v>
       </c>
       <c r="D135" s="4">
         <v>0</v>
@@ -5786,24 +6102,24 @@
         <v>321</v>
       </c>
       <c r="J135" s="5">
-        <v>13100000</v>
+        <v>13300000</v>
       </c>
       <c r="K135" s="4">
         <v>300</v>
       </c>
       <c r="L135" s="4">
-        <v>-0.016199999999999999</v>
-      </c>
-    </row>
-    <row r="136" ht="17.714" customHeight="true">
+        <v>-2.1499999999999998E-2</v>
+      </c>
+    </row>
+    <row r="136" spans="1:12" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A136" s="3" t="s">
         <v>145</v>
       </c>
       <c r="B136" s="4">
-        <v>901</v>
+        <v>907</v>
       </c>
       <c r="C136" s="4">
-        <v>444</v>
+        <v>450</v>
       </c>
       <c r="D136" s="4">
         <v>0</v>
@@ -5821,27 +6137,27 @@
         <v>0</v>
       </c>
       <c r="I136" s="4">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="J136" s="5">
-        <v>13300000</v>
+        <v>13500000</v>
       </c>
       <c r="K136" s="4">
         <v>300</v>
       </c>
       <c r="L136" s="4">
-        <v>-0.021499999999999998</v>
-      </c>
-    </row>
-    <row r="137" ht="17.714" customHeight="true">
+        <v>-1.6500000000000001E-2</v>
+      </c>
+    </row>
+    <row r="137" spans="1:12" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A137" s="3" t="s">
         <v>146</v>
       </c>
       <c r="B137" s="4">
-        <v>907</v>
+        <v>913</v>
       </c>
       <c r="C137" s="4">
-        <v>450</v>
+        <v>456</v>
       </c>
       <c r="D137" s="4">
         <v>0</v>
@@ -5859,27 +6175,27 @@
         <v>0</v>
       </c>
       <c r="I137" s="4">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="J137" s="5">
-        <v>13500000</v>
+        <v>13700000</v>
       </c>
       <c r="K137" s="4">
         <v>300</v>
       </c>
       <c r="L137" s="4">
-        <v>-0.016500000000000001</v>
-      </c>
-    </row>
-    <row r="138" ht="17.714" customHeight="true">
+        <v>-2.35E-2</v>
+      </c>
+    </row>
+    <row r="138" spans="1:12" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A138" s="3" t="s">
         <v>147</v>
       </c>
       <c r="B138" s="4">
-        <v>913</v>
+        <v>919</v>
       </c>
       <c r="C138" s="4">
-        <v>456</v>
+        <v>462</v>
       </c>
       <c r="D138" s="4">
         <v>0</v>
@@ -5900,24 +6216,24 @@
         <v>319</v>
       </c>
       <c r="J138" s="5">
-        <v>13700000</v>
+        <v>13900000</v>
       </c>
       <c r="K138" s="4">
         <v>300</v>
       </c>
       <c r="L138" s="4">
-        <v>-0.0235</v>
-      </c>
-    </row>
-    <row r="139" ht="17.714" customHeight="true">
+        <v>-2.2800000000000001E-2</v>
+      </c>
+    </row>
+    <row r="139" spans="1:12" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A139" s="3" t="s">
         <v>148</v>
       </c>
       <c r="B139" s="4">
-        <v>919</v>
+        <v>925</v>
       </c>
       <c r="C139" s="4">
-        <v>462</v>
+        <v>468</v>
       </c>
       <c r="D139" s="4">
         <v>0</v>
@@ -5938,24 +6254,24 @@
         <v>319</v>
       </c>
       <c r="J139" s="5">
-        <v>13900000</v>
+        <v>14000000</v>
       </c>
       <c r="K139" s="4">
         <v>300</v>
       </c>
       <c r="L139" s="4">
-        <v>-0.022800000000000001</v>
-      </c>
-    </row>
-    <row r="140" ht="17.714" customHeight="true">
+        <v>-2.29E-2</v>
+      </c>
+    </row>
+    <row r="140" spans="1:12" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A140" s="3" t="s">
         <v>149</v>
       </c>
       <c r="B140" s="4">
-        <v>925</v>
+        <v>931</v>
       </c>
       <c r="C140" s="4">
-        <v>468</v>
+        <v>474</v>
       </c>
       <c r="D140" s="4">
         <v>0</v>
@@ -5973,27 +6289,27 @@
         <v>0</v>
       </c>
       <c r="I140" s="4">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="J140" s="5">
-        <v>14000000</v>
+        <v>14200000</v>
       </c>
       <c r="K140" s="4">
         <v>300</v>
       </c>
       <c r="L140" s="4">
-        <v>-0.0229</v>
-      </c>
-    </row>
-    <row r="141" ht="17.714" customHeight="true">
+        <v>-2.4299999999999999E-2</v>
+      </c>
+    </row>
+    <row r="141" spans="1:12" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A141" s="3" t="s">
         <v>150</v>
       </c>
       <c r="B141" s="4">
-        <v>931</v>
+        <v>937</v>
       </c>
       <c r="C141" s="4">
-        <v>474</v>
+        <v>480</v>
       </c>
       <c r="D141" s="4">
         <v>0</v>
@@ -6014,24 +6330,24 @@
         <v>318</v>
       </c>
       <c r="J141" s="5">
-        <v>14200000</v>
+        <v>14400000</v>
       </c>
       <c r="K141" s="4">
         <v>300</v>
       </c>
       <c r="L141" s="4">
-        <v>-0.024299999999999999</v>
-      </c>
-    </row>
-    <row r="142" ht="17.714" customHeight="true">
+        <v>-2.3800000000000002E-2</v>
+      </c>
+    </row>
+    <row r="142" spans="1:12" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A142" s="3" t="s">
         <v>151</v>
       </c>
       <c r="B142" s="4">
-        <v>937</v>
+        <v>943</v>
       </c>
       <c r="C142" s="4">
-        <v>480</v>
+        <v>486</v>
       </c>
       <c r="D142" s="4">
         <v>0</v>
@@ -6049,27 +6365,27 @@
         <v>0</v>
       </c>
       <c r="I142" s="4">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="J142" s="5">
-        <v>14400000</v>
+        <v>14600000</v>
       </c>
       <c r="K142" s="4">
         <v>300</v>
       </c>
       <c r="L142" s="4">
-        <v>-0.023800000000000002</v>
-      </c>
-    </row>
-    <row r="143" ht="17.714" customHeight="true">
+        <v>-2.5499999999999998E-2</v>
+      </c>
+    </row>
+    <row r="143" spans="1:12" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A143" s="3" t="s">
         <v>152</v>
       </c>
       <c r="B143" s="4">
-        <v>943</v>
+        <v>949</v>
       </c>
       <c r="C143" s="4">
-        <v>486</v>
+        <v>492</v>
       </c>
       <c r="D143" s="4">
         <v>0</v>
@@ -6090,24 +6406,24 @@
         <v>317</v>
       </c>
       <c r="J143" s="5">
-        <v>14600000</v>
+        <v>14800000</v>
       </c>
       <c r="K143" s="4">
         <v>300</v>
       </c>
       <c r="L143" s="4">
-        <v>-0.025499999999999998</v>
-      </c>
-    </row>
-    <row r="144" ht="17.714" customHeight="true">
+        <v>-2.4400000000000002E-2</v>
+      </c>
+    </row>
+    <row r="144" spans="1:12" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A144" s="3" t="s">
         <v>153</v>
       </c>
       <c r="B144" s="4">
-        <v>949</v>
+        <v>955</v>
       </c>
       <c r="C144" s="4">
-        <v>492</v>
+        <v>498</v>
       </c>
       <c r="D144" s="4">
         <v>0</v>
@@ -6125,27 +6441,27 @@
         <v>0</v>
       </c>
       <c r="I144" s="4">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="J144" s="5">
-        <v>14800000</v>
+        <v>14900000</v>
       </c>
       <c r="K144" s="4">
         <v>300</v>
       </c>
       <c r="L144" s="4">
-        <v>-0.024400000000000002</v>
-      </c>
-    </row>
-    <row r="145" ht="17.714" customHeight="true">
+        <v>-2.52E-2</v>
+      </c>
+    </row>
+    <row r="145" spans="1:12" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A145" s="3" t="s">
         <v>154</v>
       </c>
       <c r="B145" s="4">
-        <v>955</v>
+        <v>961</v>
       </c>
       <c r="C145" s="4">
-        <v>498</v>
+        <v>504</v>
       </c>
       <c r="D145" s="4">
         <v>0</v>
@@ -6166,24 +6482,24 @@
         <v>316</v>
       </c>
       <c r="J145" s="5">
-        <v>14900000</v>
+        <v>15100000</v>
       </c>
       <c r="K145" s="4">
         <v>300</v>
       </c>
       <c r="L145" s="4">
-        <v>-0.0252</v>
-      </c>
-    </row>
-    <row r="146" ht="17.714" customHeight="true">
+        <v>-3.1399999999999997E-2</v>
+      </c>
+    </row>
+    <row r="146" spans="1:12" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A146" s="3" t="s">
         <v>155</v>
       </c>
       <c r="B146" s="4">
-        <v>961</v>
+        <v>967</v>
       </c>
       <c r="C146" s="4">
-        <v>504</v>
+        <v>510</v>
       </c>
       <c r="D146" s="4">
         <v>0</v>
@@ -6204,24 +6520,24 @@
         <v>316</v>
       </c>
       <c r="J146" s="5">
-        <v>15100000</v>
+        <v>15300000</v>
       </c>
       <c r="K146" s="4">
         <v>300</v>
       </c>
       <c r="L146" s="4">
-        <v>-0.031399999999999997</v>
-      </c>
-    </row>
-    <row r="147" ht="17.714" customHeight="true">
+        <v>-3.09E-2</v>
+      </c>
+    </row>
+    <row r="147" spans="1:12" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A147" s="3" t="s">
         <v>156</v>
       </c>
       <c r="B147" s="4">
-        <v>967</v>
+        <v>973</v>
       </c>
       <c r="C147" s="4">
-        <v>510</v>
+        <v>516</v>
       </c>
       <c r="D147" s="4">
         <v>0</v>
@@ -6239,27 +6555,27 @@
         <v>0</v>
       </c>
       <c r="I147" s="4">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="J147" s="5">
-        <v>15300000</v>
+        <v>15500000</v>
       </c>
       <c r="K147" s="4">
         <v>300</v>
       </c>
       <c r="L147" s="4">
-        <v>-0.0309</v>
-      </c>
-    </row>
-    <row r="148" ht="17.714" customHeight="true">
+        <v>-2.69E-2</v>
+      </c>
+    </row>
+    <row r="148" spans="1:12" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A148" s="3" t="s">
         <v>157</v>
       </c>
       <c r="B148" s="4">
-        <v>973</v>
+        <v>979</v>
       </c>
       <c r="C148" s="4">
-        <v>516</v>
+        <v>522</v>
       </c>
       <c r="D148" s="4">
         <v>0</v>
@@ -6280,24 +6596,24 @@
         <v>315</v>
       </c>
       <c r="J148" s="5">
-        <v>15500000</v>
+        <v>15700000</v>
       </c>
       <c r="K148" s="4">
         <v>300</v>
       </c>
       <c r="L148" s="4">
-        <v>-0.0269</v>
-      </c>
-    </row>
-    <row r="149" ht="17.714" customHeight="true">
+        <v>-2.8799999999999999E-2</v>
+      </c>
+    </row>
+    <row r="149" spans="1:12" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A149" s="3" t="s">
         <v>158</v>
       </c>
       <c r="B149" s="4">
-        <v>979</v>
+        <v>985</v>
       </c>
       <c r="C149" s="4">
-        <v>522</v>
+        <v>528</v>
       </c>
       <c r="D149" s="4">
         <v>0</v>
@@ -6318,24 +6634,24 @@
         <v>315</v>
       </c>
       <c r="J149" s="5">
-        <v>15700000</v>
+        <v>15800000</v>
       </c>
       <c r="K149" s="4">
         <v>300</v>
       </c>
       <c r="L149" s="4">
-        <v>-0.028799999999999999</v>
-      </c>
-    </row>
-    <row r="150" ht="17.714" customHeight="true">
+        <v>-2.7300000000000001E-2</v>
+      </c>
+    </row>
+    <row r="150" spans="1:12" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A150" s="3" t="s">
         <v>159</v>
       </c>
       <c r="B150" s="4">
-        <v>985</v>
+        <v>991</v>
       </c>
       <c r="C150" s="4">
-        <v>528</v>
+        <v>534</v>
       </c>
       <c r="D150" s="4">
         <v>0</v>
@@ -6353,27 +6669,27 @@
         <v>0</v>
       </c>
       <c r="I150" s="4">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="J150" s="5">
-        <v>15800000</v>
+        <v>16000000</v>
       </c>
       <c r="K150" s="4">
         <v>300</v>
       </c>
       <c r="L150" s="4">
-        <v>-0.027300000000000001</v>
-      </c>
-    </row>
-    <row r="151" ht="17.714" customHeight="true">
+        <v>-3.09E-2</v>
+      </c>
+    </row>
+    <row r="151" spans="1:12" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A151" s="3" t="s">
         <v>160</v>
       </c>
       <c r="B151" s="4">
-        <v>991</v>
+        <v>997</v>
       </c>
       <c r="C151" s="4">
-        <v>534</v>
+        <v>540</v>
       </c>
       <c r="D151" s="4">
         <v>0</v>
@@ -6394,24 +6710,24 @@
         <v>314</v>
       </c>
       <c r="J151" s="5">
-        <v>16000000</v>
+        <v>16200000</v>
       </c>
       <c r="K151" s="4">
         <v>300</v>
       </c>
       <c r="L151" s="4">
-        <v>-0.0309</v>
-      </c>
-    </row>
-    <row r="152" ht="17.714" customHeight="true">
+        <v>-2.9499999999999998E-2</v>
+      </c>
+    </row>
+    <row r="152" spans="1:12" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A152" s="3" t="s">
         <v>161</v>
       </c>
       <c r="B152" s="4">
-        <v>997</v>
+        <v>1000</v>
       </c>
       <c r="C152" s="4">
-        <v>540</v>
+        <v>546</v>
       </c>
       <c r="D152" s="4">
         <v>0</v>
@@ -6432,24 +6748,24 @@
         <v>314</v>
       </c>
       <c r="J152" s="5">
-        <v>16200000</v>
+        <v>16400000</v>
       </c>
       <c r="K152" s="4">
         <v>300</v>
       </c>
       <c r="L152" s="4">
-        <v>-0.029499999999999998</v>
-      </c>
-    </row>
-    <row r="153" ht="17.714" customHeight="true">
+        <v>-2.93E-2</v>
+      </c>
+    </row>
+    <row r="153" spans="1:12" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A153" s="3" t="s">
         <v>162</v>
       </c>
       <c r="B153" s="4">
-        <v>1000</v>
+        <v>1010</v>
       </c>
       <c r="C153" s="4">
-        <v>546</v>
+        <v>552</v>
       </c>
       <c r="D153" s="4">
         <v>0</v>
@@ -6470,16 +6786,16 @@
         <v>314</v>
       </c>
       <c r="J153" s="5">
-        <v>16400000</v>
+        <v>16600000</v>
       </c>
       <c r="K153" s="4">
         <v>300</v>
       </c>
       <c r="L153" s="4">
-        <v>-0.0293</v>
-      </c>
-    </row>
-    <row r="154" ht="17.714" customHeight="true">
+        <v>-3.3599999999999998E-2</v>
+      </c>
+    </row>
+    <row r="154" spans="1:12" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A154" s="3" t="s">
         <v>163</v>
       </c>
@@ -6487,7 +6803,7 @@
         <v>1010</v>
       </c>
       <c r="C154" s="4">
-        <v>552</v>
+        <v>558</v>
       </c>
       <c r="D154" s="4">
         <v>0</v>
@@ -6505,27 +6821,27 @@
         <v>0</v>
       </c>
       <c r="I154" s="4">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="J154" s="5">
-        <v>16600000</v>
+        <v>16700000</v>
       </c>
       <c r="K154" s="4">
         <v>300</v>
       </c>
       <c r="L154" s="4">
-        <v>-0.033599999999999998</v>
-      </c>
-    </row>
-    <row r="155" ht="17.714" customHeight="true">
+        <v>-2.6200000000000001E-2</v>
+      </c>
+    </row>
+    <row r="155" spans="1:12" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A155" s="3" t="s">
         <v>164</v>
       </c>
       <c r="B155" s="4">
-        <v>1010</v>
+        <v>1020</v>
       </c>
       <c r="C155" s="4">
-        <v>558</v>
+        <v>564</v>
       </c>
       <c r="D155" s="4">
         <v>0</v>
@@ -6546,24 +6862,24 @@
         <v>313</v>
       </c>
       <c r="J155" s="5">
-        <v>16700000</v>
+        <v>16900000</v>
       </c>
       <c r="K155" s="4">
         <v>300</v>
       </c>
       <c r="L155" s="4">
-        <v>-0.026200000000000001</v>
-      </c>
-    </row>
-    <row r="156" ht="17.714" customHeight="true">
+        <v>-3.1800000000000002E-2</v>
+      </c>
+    </row>
+    <row r="156" spans="1:12" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A156" s="3" t="s">
         <v>165</v>
       </c>
       <c r="B156" s="4">
-        <v>1020</v>
+        <v>1030</v>
       </c>
       <c r="C156" s="4">
-        <v>564</v>
+        <v>570</v>
       </c>
       <c r="D156" s="4">
         <v>0</v>
@@ -6584,16 +6900,16 @@
         <v>313</v>
       </c>
       <c r="J156" s="5">
-        <v>16900000</v>
+        <v>17100000</v>
       </c>
       <c r="K156" s="4">
         <v>300</v>
       </c>
       <c r="L156" s="4">
-        <v>-0.031800000000000002</v>
-      </c>
-    </row>
-    <row r="157" ht="17.714" customHeight="true">
+        <v>-2.4799999999999999E-2</v>
+      </c>
+    </row>
+    <row r="157" spans="1:12" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A157" s="3" t="s">
         <v>166</v>
       </c>
@@ -6601,7 +6917,7 @@
         <v>1030</v>
       </c>
       <c r="C157" s="4">
-        <v>570</v>
+        <v>576</v>
       </c>
       <c r="D157" s="4">
         <v>0</v>
@@ -6619,27 +6935,27 @@
         <v>0</v>
       </c>
       <c r="I157" s="4">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="J157" s="5">
-        <v>17100000</v>
+        <v>17300000</v>
       </c>
       <c r="K157" s="4">
         <v>300</v>
       </c>
       <c r="L157" s="4">
-        <v>-0.024799999999999999</v>
-      </c>
-    </row>
-    <row r="158" ht="17.714" customHeight="true">
+        <v>-2.92E-2</v>
+      </c>
+    </row>
+    <row r="158" spans="1:12" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A158" s="3" t="s">
         <v>167</v>
       </c>
       <c r="B158" s="4">
-        <v>1030</v>
+        <v>1040</v>
       </c>
       <c r="C158" s="4">
-        <v>576</v>
+        <v>582</v>
       </c>
       <c r="D158" s="4">
         <v>0</v>
@@ -6660,16 +6976,16 @@
         <v>312</v>
       </c>
       <c r="J158" s="5">
-        <v>17300000</v>
+        <v>17500000</v>
       </c>
       <c r="K158" s="4">
         <v>300</v>
       </c>
       <c r="L158" s="4">
-        <v>-0.0292</v>
-      </c>
-    </row>
-    <row r="159" ht="17.714" customHeight="true">
+        <v>-3.1699999999999999E-2</v>
+      </c>
+    </row>
+    <row r="159" spans="1:12" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A159" s="3" t="s">
         <v>168</v>
       </c>
@@ -6677,7 +6993,7 @@
         <v>1040</v>
       </c>
       <c r="C159" s="4">
-        <v>582</v>
+        <v>588</v>
       </c>
       <c r="D159" s="4">
         <v>0</v>
@@ -6698,24 +7014,24 @@
         <v>312</v>
       </c>
       <c r="J159" s="5">
-        <v>17500000</v>
+        <v>17600000</v>
       </c>
       <c r="K159" s="4">
         <v>300</v>
       </c>
       <c r="L159" s="4">
-        <v>-0.031699999999999999</v>
-      </c>
-    </row>
-    <row r="160" ht="17.714" customHeight="true">
+        <v>-3.1199999999999999E-2</v>
+      </c>
+    </row>
+    <row r="160" spans="1:12" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A160" s="3" t="s">
         <v>169</v>
       </c>
       <c r="B160" s="4">
-        <v>1040</v>
+        <v>1050</v>
       </c>
       <c r="C160" s="4">
-        <v>588</v>
+        <v>594</v>
       </c>
       <c r="D160" s="4">
         <v>0</v>
@@ -6733,27 +7049,27 @@
         <v>0</v>
       </c>
       <c r="I160" s="4">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="J160" s="5">
-        <v>17600000</v>
+        <v>17800000</v>
       </c>
       <c r="K160" s="4">
         <v>300</v>
       </c>
       <c r="L160" s="4">
-        <v>-0.031199999999999999</v>
-      </c>
-    </row>
-    <row r="161" ht="17.714" customHeight="true">
+        <v>-3.1099999999999999E-2</v>
+      </c>
+    </row>
+    <row r="161" spans="1:12" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A161" s="3" t="s">
         <v>170</v>
       </c>
       <c r="B161" s="4">
-        <v>1050</v>
+        <v>1060</v>
       </c>
       <c r="C161" s="4">
-        <v>594</v>
+        <v>600</v>
       </c>
       <c r="D161" s="4">
         <v>0</v>
@@ -6774,24 +7090,24 @@
         <v>311</v>
       </c>
       <c r="J161" s="5">
-        <v>17800000</v>
+        <v>18000000</v>
       </c>
       <c r="K161" s="4">
         <v>300</v>
       </c>
       <c r="L161" s="4">
-        <v>-0.031099999999999999</v>
-      </c>
-    </row>
-    <row r="162" ht="17.714" customHeight="true">
+        <v>-3.3399999999999999E-2</v>
+      </c>
+    </row>
+    <row r="162" spans="1:12" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A162" s="3" t="s">
         <v>171</v>
       </c>
       <c r="B162" s="4">
-        <v>1060</v>
+        <v>1080</v>
       </c>
       <c r="C162" s="4">
-        <v>600</v>
+        <v>22.7</v>
       </c>
       <c r="D162" s="4">
         <v>0</v>
@@ -6809,27 +7125,27 @@
         <v>0</v>
       </c>
       <c r="I162" s="4">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="J162" s="5">
-        <v>18000000</v>
+        <v>18600000</v>
       </c>
       <c r="K162" s="4">
         <v>300</v>
       </c>
       <c r="L162" s="4">
-        <v>-0.033399999999999999</v>
-      </c>
-    </row>
-    <row r="163" ht="17.714" customHeight="true">
+        <v>-3.73E-2</v>
+      </c>
+    </row>
+    <row r="163" spans="1:12" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A163" s="3" t="s">
         <v>172</v>
       </c>
       <c r="B163" s="4">
-        <v>1080</v>
+        <v>1090</v>
       </c>
       <c r="C163" s="4">
-        <v>22.699999999999999</v>
+        <v>29.3</v>
       </c>
       <c r="D163" s="4">
         <v>0</v>
@@ -6847,69 +7163,26 @@
         <v>0</v>
       </c>
       <c r="I163" s="4">
-        <v>310</v>
+        <v>304</v>
       </c>
       <c r="J163" s="5">
-        <v>18600000</v>
+        <v>18800000</v>
       </c>
       <c r="K163" s="4">
-        <v>300</v>
+        <v>279</v>
       </c>
       <c r="L163" s="4">
-        <v>-0.0373</v>
-      </c>
-    </row>
-    <row r="164" ht="17.714" customHeight="true">
-      <c r="A164" s="3" t="s">
-        <v>173</v>
-      </c>
-      <c r="B164" s="4">
-        <v>1090</v>
-      </c>
-      <c r="C164" s="4">
-        <v>29.300000000000001</v>
-      </c>
-      <c r="D164" s="4">
-        <v>0</v>
-      </c>
-      <c r="E164" s="4">
-        <v>0</v>
-      </c>
-      <c r="F164" s="4">
-        <v>0</v>
-      </c>
-      <c r="G164" s="4">
-        <v>0</v>
-      </c>
-      <c r="H164" s="4">
-        <v>0</v>
-      </c>
-      <c r="I164" s="4">
-        <v>304</v>
-      </c>
-      <c r="J164" s="5">
-        <v>18800000</v>
-      </c>
-      <c r="K164" s="4">
-        <v>279</v>
-      </c>
-      <c r="L164" s="4">
-        <v>-0.032300000000000002</v>
+        <v>-3.2300000000000002E-2</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.0" right="0.0" top="0.0" bottom="0.0" header="0.0" footer="0.0"/>
+  <pageMargins left="0" right="0" top="0" bottom="0" header="0" footer="0"/>
   <pageSetup paperSize="9" scale="87" orientation="portrait"/>
-  <headerFooter>
-    <oddHeader/>
-    <oddFooter/>
-  </headerFooter>
   <rowBreaks count="4" manualBreakCount="4">
-    <brk id="34" max="16383" man="true"/>
-    <brk id="85" max="16383" man="true"/>
-    <brk id="136" max="16383" man="true"/>
-    <brk id="164" max="16383" man="true"/>
+    <brk id="33" max="16383" man="1"/>
+    <brk id="84" max="16383" man="1"/>
+    <brk id="135" max="16383" man="1"/>
+    <brk id="163" max="16383" man="1"/>
   </rowBreaks>
-  <drawing r:id="rId1"/>
 </worksheet>
 </file>